--- a/Mon Code/new_fichier_traduit.xlsx
+++ b/Mon Code/new_fichier_traduit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ337"/>
+  <dimension ref="A1:AN342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,26 @@
       <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>question1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>réponse1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>question2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>réponse2</t>
         </is>
       </c>
     </row>
@@ -702,6 +722,10 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -826,6 +850,10 @@
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -936,6 +964,10 @@
       <c r="AJ4" t="n">
         <v>1</v>
       </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1024,6 +1056,10 @@
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1132,6 +1168,10 @@
       <c r="AJ6" t="n">
         <v>3</v>
       </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1250,6 +1290,10 @@
       <c r="AJ7" t="n">
         <v>1</v>
       </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1278,7 +1322,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">In March 2012, Thibaut Espiau, Ištvan Išt Huzjan and Grégoire Motte established the Artists Club, a group of artists whose primary activity is spending time together and discussion but not developing an art practice as a collective. A few months later, they discovered a huge Fichet Bauche brand vault on the mezzanine floor of the building where they had their studios. This steel cube of several tones was to mark the start of a palpable artistic collaboration between members of the club as well as the opening of an exhibition space. Both activities are closely intertwined....First worksThe renovation of the vault and the surrounding room gave rise to the frst works by the trio of artists. These were mostly objects documenting the way the space was used (First foor cloth (pink and pierced)) or things they fnd in the rubble (A little gold) or the use of the volume of rooms as a camera obscura to observe the street upside down. The Vault The box is a cube of 230 x 280 x 230 cm. The interior space measures 200 x 250 x 200 cm. It is placed in the middle of a room of thirty square meters on the mezzanine of a former jeweler’s place located on 63 Rue du Houblon in the centre of Brussels. From the street, two windows give a view looking down onto the vault and a third window serves as a showcase for graphic proposals. On December 20th, 2012, the Vault was un&lt;0x02&gt;veiled to the public as a work by the Artists Club as well as a new exhibition space. It was empty and simply furnished with a white carpet. What followed was a party. The Carpet The dirty white carpet was removed and kept as another trace of evolution of the Artists Club’s Vault: a trace from the frst meeting between the Vault and it’s public. Since then, for each exhibition, the Artists Club changes the carpet in the Vault, and keeps it as a sou&lt;0x02&gt;venir of the collaboration with the guest artist. Invited by the Brussels based fair ‘Brussels Cologne Contemporaries’ The Artists Club presented their collection of eleven carpets in January 2014 in Cologne. Exhibitions The frequency and duration of the exhibitions is very irregular (one night only sometimes) because the goal is not to “make exhibitions” but to try to invite artists who belong to Artists Club personal art history and to make it public. With very limited fnancial resour&lt;0x02&gt;ces, Artists Club often has to wait, like a trapdoor spider, for artists to be close to Brussels in order to work with them in the Vault. We claim periods of inactivity as well as the furtive nature of certain exhibitions because we think it is more natural than a continuous stream of proposals. We are artists and we run the place as such. The exhibitions at the Vault are the result of discussions between artists (who integrate the Club for the duration of the exhibition) and us. So in some respects, these exhibitions are actually collaborations. We produce with each artist an edition that accompanies the exhibition. These editions are small booklets, posters, sound works on USB keys, etc. </t>
+          <t>In March 2012, Thibaut Espiau, Ištvan Išt Huzjan and Grégoire Motte established the Artists Club, a group of artists whose primary activity is spending time together and discussion but not developing an art practice as a collective. A few months later, they discovered a huge Fichet Bauche brand vault on the mezzanine floor of the building where they had their studios. This steel cube of several tones was to mark the start of a palpable artistic collaboration between members of the club as well as the opening of an exhibition space. Both activities are closely intertwined....First worksThe renovation of the vault and the surrounding room gave rise to the frst works by the trio of artists. These were mostly objects documenting the way the space was used (First foor cloth (pink and pierced)) or things they fnd in the rubble (A little gold) or the use of the volume of rooms as a camera obscura to observe the street upside down. The Vault The box is a cube of 230 x 280 x 230 cm. The interior space measures 200 x 250 x 200 cm. It is placed in the middle of a room of thirty square meters on the mezzanine of a former jeweler’s place located on 63 Rue du Houblon in the centre of Brussels. From the street, two windows give a view looking down onto the vault and a third window serves as a showcase for graphic proposals. On December 20th, 2012, the Vault was un&lt;0x02&gt;veiled to the public as a work by the Artists Club as well as a new exhibition space. It was empty and simply furnished with a white carpet. What followed was a party. The Carpet The dirty white carpet was removed and kept as another trace of evolution of the Artists Club’s Vault: a trace from the frst meeting between the Vault and it’s public. Since then, for each exhibition, the Artists Club changes the carpet in the Vault, and keeps it as a sou&lt;0x02&gt;venir of the collaboration with the guest artist. Invited by the Brussels based fair ‘Brussels Cologne Contemporaries’ The Artists Club presented their collection of eleven carpets in January 2014 in Cologne. Exhibitions The frequency and duration of the exhibitions is very irregular (one night only sometimes) because the goal is not to “make exhibitions” but to try to invite artists who belong to Artists Club personal art history and to make it public. With very limited fnancial resour&lt;0x02&gt;ces, Artists Club often has to wait, like a trapdoor spider, for artists to be close to Brussels in order to work with them in the Vault. We claim periods of inactivity as well as the furtive nature of certain exhibitions because we think it is more natural than a continuous stream of proposals. We are artists and we run the place as such. The exhibitions at the Vault are the result of discussions between artists (who integrate the Club for the duration of the exhibition) and us. So in some respects, these exhibitions are actually collaborations. We produce with each artist an edition that accompanies the exhibition. These editions are small booklets, posters, sound works on USB keys, etc.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1362,6 +1406,10 @@
       <c r="AJ8" t="n">
         <v>1</v>
       </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1398,10 +1446,9 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -English below- /77 a été fondé à Milan en 2015 par Alessandro Moroni et Giulia Ratti. Jusqu'en 2017 en collectif avec Nicole Colombo et Luca Loreti. Le but du collectif est de créer des partenariats et des projets qui impliquent des jeunes artistes, sans grande expérience de l' exposition. L'intérêt principal est de stimuler un débat collectif sur le travail et la recherche d'artistes individuels aussi et surtout à l'extérieur champ d'exposition. / 77 vise à être le meilleur environnement possible pour afficher, document, conception, rencontrer et discuter de leur travail.L'intérêt principal du collectif est l'expérimentation et la recherche. L'espace physique est un lieu où les travaux sont au pouvoir, un laboratoire où les idées sont en cours d'élaboration. Avec notre travail, nous créons un réseau entre les artistes, les œuvres et les institutions maintiennent toujours vivant le débat sur l'art contemporain et de l'actualité. Notre pratique est de comprendre et de répondre aux besoins des jeunes artistes en leur offrant la possibilité de développer des projets qui leur permettront d'approfondir leur recherche.
+          <t>-English below- /77 a été fondé à Milan en 2015 par Alessandro Moroni et Giulia Ratti. Jusqu'en 2017 en collectif avec Nicole Colombo et Luca Loreti. Le but du collectif est de créer des partenariats et des projets qui impliquent des jeunes artistes, sans grande expérience de l' exposition. L'intérêt principal est de stimuler un débat collectif sur le travail et la recherche d'artistes individuels aussi et surtout à l'extérieur champ d'exposition. / 77 vise à être le meilleur environnement possible pour afficher, document, conception, rencontrer et discuter de leur travail.L'intérêt principal du collectif est l'expérimentation et la recherche. L'espace physique est un lieu où les travaux sont au pouvoir, un laboratoire où les idées sont en cours d'élaboration. Avec notre travail, nous créons un réseau entre les artistes, les œuvres et les institutions maintiennent toujours vivant le débat sur l'art contemporain et de l'actualité. Notre pratique est de comprendre et de répondre aux besoins des jeunes artistes en leur offrant la possibilité de développer des projets qui leur permettront d'approfondir leur recherche.
 --
-/77 was founded in Milan in 2015 by Alessandro Moroni and Giulia Ratti. Up to 2017 it has been run together with Nicole Colombo and Luca Loreti./77 is an artist-run studio open to collaborations and external projects involving young artists and art students whose work has not been exhibited yet. Our main focus is on creating a collective debate around the work and the research of each artist alongside, as well as beside, the context of the exhibition./77 is an artist-run studio open to collaborations and external projects involving young artists and art students whose work has not been exhibited yet. Our main focus is on creating a collective debate around the work and the research of each artist alongside, as well as beside, the context of the exhibition.We chose to work with young artists exclusively because we are interested inexperimentation and research in its embryonic stage. The frame of the studio as an art space in which the artwork is not fully concluded yet or a laboratory were ideas are still developing, perfectly represents our guideline. /77 proposes itself as a place for showing, documenting, designing and discussing your work while having the chance of talking about it with others.We aim at creating a network of young artists and artworks keeping alive the debate around contemporary art and current issues.
- </t>
+/77 was founded in Milan in 2015 by Alessandro Moroni and Giulia Ratti. Up to 2017 it has been run together with Nicole Colombo and Luca Loreti./77 is an artist-run studio open to collaborations and external projects involving young artists and art students whose work has not been exhibited yet. Our main focus is on creating a collective debate around the work and the research of each artist alongside, as well as beside, the context of the exhibition./77 is an artist-run studio open to collaborations and external projects involving young artists and art students whose work has not been exhibited yet. Our main focus is on creating a collective debate around the work and the research of each artist alongside, as well as beside, the context of the exhibition.We chose to work with young artists exclusively because we are interested inexperimentation and research in its embryonic stage. The frame of the studio as an art space in which the artwork is not fully concluded yet or a laboratory were ideas are still developing, perfectly represents our guideline. /77 proposes itself as a place for showing, documenting, designing and discussing your work while having the chance of talking about it with others.We aim at creating a network of young artists and artworks keeping alive the debate around contemporary art and current issues.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1488,6 +1535,10 @@
       <c r="AJ9" t="n">
         <v>1</v>
       </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1604,6 +1655,10 @@
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1635,7 +1690,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Du jeudi au samedi&lt;0x0d&gt;
+          <t>Du jeudi au samedi
 de 14h à 18h et sur rendez-vous</t>
         </is>
       </c>
@@ -1729,6 +1784,26 @@
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Immania was created in 1998 at a time when many artists appeared. These exhibition sites were also a response to a particular situation. The context of the period is: The financial crisis in France will see the expansion of the market of art, starting in the first years of this century. The artists are no longer able to expose themselves in the galleries after the others. They will create their own structures of art. They are more complex and the financial crisis is not only false, they are added to the generation crisis in the world of art.</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>There are times when the artistic work of an artist is related to one or more exhibitions. Sometimes the artistic practice is removed from the curator's practice. Whatever is, this dual practice of a curator is said to be completely occupied and lived. In the fundamental artists of the place, the artistic activity is parallel to the management of an exhibition. These artists show an alternative mode of operation of a line. An exhibition, organized by an artist-run, perhaps a model of design.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1839,6 +1914,10 @@
       <c r="AJ12" t="n">
         <v>1</v>
       </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1867,7 +1946,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">91 rue de Dunkerque </t>
+          <t>91 rue de Dunkerque</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1961,6 +2040,10 @@
       <c r="AJ13" t="n">
         <v>1</v>
       </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1989,7 +2072,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 montée Saint Sébastien</t>
+          <t>24 montée Saint Sébastien</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2068,7 +2151,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 montée Saint Sébastien, 69001, Lyon, France</t>
+          <t>24 montée Saint Sébastien, 69001, Lyon, France</t>
         </is>
       </c>
       <c r="AG14" t="n">
@@ -2079,6 +2162,10 @@
       <c r="AJ14" t="n">
         <v>1</v>
       </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2203,6 +2290,10 @@
       <c r="AJ15" t="n">
         <v>1</v>
       </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2239,11 +2330,9 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Kings Artist Run is a non-for-profit gallery in Melbourne’s CBD
+          <t>Kings Artist Run is a non-for-profit gallery in Melbourne’s CBD
 Kings Artist Run provides a location for contemporary art practice, supporting distinctive experimental projects by artists at all stages of their careers. Kings ARI assists and promotes the development of solo exhibitions, group and thematic projects, along with a program of events that includes performance, film screenings, public gatherings and talks.
-Functioning as a collective of artists, writers, curators and academics, Kings Artist Run was formed to explore, interpret and participate in the mediation of new social and cultural meanings. In 2013 Kings Artist Run celebrated its 10th anniversary.
-</t>
+Functioning as a collective of artists, writers, curators and academics, Kings Artist Run was formed to explore, interpret and participate in the mediation of new social and cultural meanings. In 2013 Kings Artist Run celebrated its 10th anniversary.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2323,6 +2412,10 @@
       <c r="AJ16" t="n">
         <v>1</v>
       </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2439,6 +2532,10 @@
       <c r="AJ17" t="n">
         <v>1</v>
       </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2553,6 +2650,10 @@
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2675,6 +2776,10 @@
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2795,6 +2900,10 @@
       <c r="AJ20" t="n">
         <v>1</v>
       </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2817,14 +2926,14 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 GERTRUDE STREET </t>
+          <t>200 GERTRUDE STREET</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TUESDAY – FRIDAY&lt;0x0d&gt;
-11.00 – 5.30PM&lt;0x0d&gt;
-SATURDAY&lt;0x0d&gt;
+          <t>TUESDAY – FRIDAY
+11.00 – 5.30PM
+SATURDAY
 11.00 – 4.30PM</t>
         </is>
       </c>
@@ -2836,8 +2945,8 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gertrude Contemporary opened in 1985 in a large converted warehouse in Fitzroy, Melbourne and led the way as Australia’s first combined gallery and studio complex. Named initially after its address - 200 Gertrude Street -  the organisation has since expanded, transforming from an address to an entity, and changing its name to Gertrude Contemporary in 2010. 
-Since 1985 we have accumulated a vast alumni of past exhibiting and studio artists including some of Australia’s leading names in contemporary art. In fact every artist who has represented Australia at the Venice Biennial since 1999 has either held a studio or participated in an exhibition at Gertrude Contemporary. This select community of Australia’s most pivotal contemporary artists has expanded in recent years to include our increasing international presence, with leading artists and curators from all over the world exhibiting in our galleries and staying in our studios. As a key generator for ideas in Australia, and with the momentum of our history behind us, Gertrude Contemporary is now the oldest, continually running contemporary art centre in Australia. </t>
+          <t>Gertrude Contemporary opened in 1985 in a large converted warehouse in Fitzroy, Melbourne and led the way as Australia’s first combined gallery and studio complex. Named initially after its address - 200 Gertrude Street -  the organisation has since expanded, transforming from an address to an entity, and changing its name to Gertrude Contemporary in 2010. 
+Since 1985 we have accumulated a vast alumni of past exhibiting and studio artists including some of Australia’s leading names in contemporary art. In fact every artist who has represented Australia at the Venice Biennial since 1999 has either held a studio or participated in an exhibition at Gertrude Contemporary. This select community of Australia’s most pivotal contemporary artists has expanded in recent years to include our increasing international presence, with leading artists and curators from all over the world exhibiting in our galleries and staying in our studios. As a key generator for ideas in Australia, and with the momentum of our history behind us, Gertrude Contemporary is now the oldest, continually running contemporary art centre in Australia.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2927,6 +3036,10 @@
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3037,6 +3150,10 @@
       <c r="AJ22" t="n">
         <v>1</v>
       </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3163,6 +3280,10 @@
       <c r="AJ23" t="n">
         <v>1</v>
       </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3277,6 +3398,10 @@
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3314,10 +3439,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anne Dreyfus, Direction artistique&lt;0x0d&gt;
-Amandine Banal, Production &amp; Administration&lt;0x0d&gt;
-Sejla (Sheila) Dukatar, Communication &amp; Relations avec les publics&lt;0x0d&gt;
-Marie Cramez, Développement des partenariats privés&lt;0x0d&gt;
+          <t>Anne Dreyfus, Direction artistique
+Amandine Banal, Production &amp; Administration
+Sejla (Sheila) Dukatar, Communication &amp; Relations avec les publics
+Marie Cramez, Développement des partenariats privés
 Birgit Brendgen, Conception graphique</t>
         </is>
       </c>
@@ -3405,6 +3530,10 @@
       <c r="AJ25" t="n">
         <v>1</v>
       </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3525,6 +3654,10 @@
       <c r="AJ26" t="n">
         <v>1</v>
       </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3649,6 +3782,10 @@
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3775,6 +3912,10 @@
       <c r="AJ28" t="n">
         <v>1</v>
       </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3891,6 +4032,10 @@
       <c r="AJ29" t="n">
         <v>1</v>
       </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4018,6 +4163,10 @@
       <c r="AJ30" t="n">
         <v>1</v>
       </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4134,6 +4283,10 @@
       <c r="AJ31" t="n">
         <v>1</v>
       </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4266,6 +4419,10 @@
       <c r="AJ32" t="n">
         <v>1</v>
       </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4388,6 +4545,10 @@
       <c r="AJ33" t="n">
         <v>1</v>
       </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4510,6 +4671,10 @@
       <c r="AJ34" t="n">
         <v>1</v>
       </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4646,6 +4811,10 @@
       <c r="AJ35" t="n">
         <v>1</v>
       </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4760,6 +4929,10 @@
       <c r="AJ36" t="n">
         <v>1</v>
       </c>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4797,7 +4970,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Emil Mirazchiev&lt;0x0d&gt;
+          <t>Emil Mirazchiev
 Nadia Genova</t>
         </is>
       </c>
@@ -4881,6 +5054,10 @@
       <c r="AJ37" t="n">
         <v>1</v>
       </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5007,6 +5184,10 @@
       <c r="AJ38" t="n">
         <v>1</v>
       </c>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5127,6 +5308,10 @@
       <c r="AJ39" t="n">
         <v>1</v>
       </c>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5158,15 +5343,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Noon-5:00pm&lt;0x0d&gt;
+          <t>Noon-5:00pm
 Tuesday - Saturday</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Founded in September 1972, Open Space is a non-profit artist-run centre located in Victoria, British Columbia. For over forty years, Open Space has supported professional artists who utilize hybrid and experimental approaches to media, art, music, and performance. As an exhibition and performance centre, Open Space reflects the wide diversity of contemporary art practices in Victoria, across Canada, and beyond. Our commitment to contemporary artists is an inclusive situation, embracing work by artists of different disciplines, media, generations, cultures, and communities.
-Open Space supports experimental artistic practices in all contemporary artsdisciplines, acting as a laboratory for engaging art, artists, and audiences. 
-</t>
+          <t>Founded in September 1972, Open Space is a non-profit artist-run centre located in Victoria, British Columbia. For over forty years, Open Space has supported professional artists who utilize hybrid and experimental approaches to media, art, music, and performance. As an exhibition and performance centre, Open Space reflects the wide diversity of contemporary art practices in Victoria, across Canada, and beyond. Our commitment to contemporary artists is an inclusive situation, embracing work by artists of different disciplines, media, generations, cultures, and communities.
+Open Space supports experimental artistic practices in all contemporary artsdisciplines, acting as a laboratory for engaging art, artists, and audiences.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -5203,11 +5387,11 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>he Canada Council for the Arts;&lt;0x0d&gt;
-The Province of British Columbia, through the BC Arts Council and Community Gaming Grants;&lt;0x0d&gt;
-The Victoria Foundation;&lt;0x0d&gt;
-The SOCAN Foundation;&lt;0x0d&gt;
-The Greater Victoria Capital Regional District, through the municipalities of Esquimalt, Oak Bay, Metchosin, Saanich, Highlands, View Royal, Sidney and the City of Victoria;&lt;0x0d&gt;
+          <t>he Canada Council for the Arts;
+The Province of British Columbia, through the BC Arts Council and Community Gaming Grants;
+The Victoria Foundation;
+The SOCAN Foundation;
+The Greater Victoria Capital Regional District, through the municipalities of Esquimalt, Oak Bay, Metchosin, Saanich, Highlands, View Royal, Sidney and the City of Victoria;
 and our members and volunteers.</t>
         </is>
       </c>
@@ -5253,6 +5437,10 @@
       <c r="AJ40" t="n">
         <v>1</v>
       </c>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5284,8 +5472,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>du mercredi au samedi (sauf jours fériés) &lt;0x0d&gt;
-14h - 18h d’octobre à mars &lt;0x0d&gt;
+          <t>du mercredi au samedi (sauf jours fériés) 
+14h - 18h d’octobre à mars 
 15h - 19h d’avril à septembre</t>
         </is>
       </c>
@@ -5377,6 +5565,10 @@
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5403,7 +5595,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Müllnerstr. 22 </t>
+          <t>Müllnerstr. 22</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5493,6 +5685,10 @@
       <c r="AJ42" t="n">
         <v>1</v>
       </c>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5524,7 +5720,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Wednesday to Sunday, 12:00 – 19:00 hrs&lt;0x0d&gt;
+          <t>Wednesday to Sunday, 12:00 – 19:00 hrs
 Closed on Monday, Tuesday and Public Holidays.</t>
         </is>
       </c>
@@ -5540,12 +5736,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Founded in early 1996 as an artist run space, Para Site was Hong Kong's first institution of contemporary art and a crucial self-organised structure within the city’s civil society, during the uncertain period preceding its handover to Mainland China. Throughout the years, Para Site has evolved into a professional contemporary art centre, engaged in a wide array of activities and collaborations with other art institutions, museums, biennials and academic structures in Hong Kong and the international landscape. After the first year in Kennedy Town, Para Site relocated to Po Yan Street in Sheung Wan (at no. 2 in the initial years and at no. 4 until 2014). Para Site moved to North Point/Quarry Bay in early 2015. The institution has been led by Tobias Berger (2005-2008), Alvaro Rodriguez Fominaya (2008-2011) and Cosmin Costinas (since 2011). </t>
+          <t>Founded in early 1996 as an artist run space, Para Site was Hong Kong's first institution of contemporary art and a crucial self-organised structure within the city’s civil society, during the uncertain period preceding its handover to Mainland China. Throughout the years, Para Site has evolved into a professional contemporary art centre, engaged in a wide array of activities and collaborations with other art institutions, museums, biennials and academic structures in Hong Kong and the international landscape. After the first year in Kennedy Town, Para Site relocated to Po Yan Street in Sheung Wan (at no. 2 in the initial years and at no. 4 until 2014). Para Site moved to North Point/Quarry Bay in early 2015. The institution has been led by Tobias Berger (2005-2008), Alvaro Rodriguez Fominaya (2008-2011) and Cosmin Costinas (since 2011).</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Throughout its history, Para Site's activities have included a range of different formats, among which a smaller parallel exhibition space, Para/Site Central, hosted by Hanart TZ Gallery in Central (1997-2008); P/S magazine (1997-2006), a bilingual publication which was Hong Kong's first visual arts magazine and a central platform for the development of art writing and of a discursive scene in the city; and the Curatorial Training Programme (2007-2010). Since 2012, Para Site has been running an International Art Residency Programme. </t>
+          <t>Throughout its history, Para Site's activities have included a range of different formats, among which a smaller parallel exhibition space, Para/Site Central, hosted by Hanart TZ Gallery in Central (1997-2008); P/S magazine (1997-2006), a bilingual publication which was Hong Kong's first visual arts magazine and a central platform for the development of art writing and of a discursive scene in the city; and the Curatorial Training Programme (2007-2010). Since 2012, Para Site has been running an International Art Residency Programme.</t>
         </is>
       </c>
       <c r="M43" t="b">
@@ -5624,6 +5820,10 @@
       <c r="AJ43" t="n">
         <v>1</v>
       </c>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5751,6 +5951,10 @@
       <c r="AJ44" t="n">
         <v>1</v>
       </c>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5859,6 +6063,10 @@
       <c r="AJ45" t="n">
         <v>1</v>
       </c>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5890,7 +6098,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">durant les expositions le samedi de 14h à 18h ou sur rendez-vous </t>
+          <t>durant les expositions le samedi de 14h à 18h ou sur rendez-vous</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5975,6 +6183,10 @@
       <c r="AJ46" t="n">
         <v>1</v>
       </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6085,6 +6297,10 @@
       <c r="AJ47" t="n">
         <v>1</v>
       </c>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6191,6 +6407,10 @@
       <c r="AJ48" t="n">
         <v>1</v>
       </c>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6311,6 +6531,10 @@
       <c r="AJ49" t="n">
         <v>1</v>
       </c>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6339,7 +6563,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">6, grande rue, Sèvres  </t>
+          <t>6, grande rue, Sèvres</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6433,6 +6657,10 @@
       <c r="AJ50" t="n">
         <v>1</v>
       </c>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6549,6 +6777,10 @@
       <c r="AJ51" t="n">
         <v>1</v>
       </c>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6670,6 +6902,10 @@
       <c r="AJ52" t="n">
         <v>1</v>
       </c>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6714,7 +6950,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grimmuseum gUG is a non-profit artists-run institution that promotes visual art, performance art and sound art in the premises of the former Luise Grimm Museum in Kreuzberg, Berlin. Grimmuseum was founded in 2010 by artist Enrico Centonze with the goal to create an interdisciplinary platform for established as well as emerging Berlin-based artists and curators. </t>
+          <t>Grimmuseum gUG is a non-profit artists-run institution that promotes visual art, performance art and sound art in the premises of the former Luise Grimm Museum in Kreuzberg, Berlin. Grimmuseum was founded in 2010 by artist Enrico Centonze with the goal to create an interdisciplinary platform for established as well as emerging Berlin-based artists and curators.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -6792,6 +7028,10 @@
       <c r="AJ53" t="n">
         <v>1</v>
       </c>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6875,8 +7115,8 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Operation funding of Loop has beeen assisted by government fund, entreprise sponsorship and private donation.&lt;0x0d&gt;
-As government funding, which has been given to Loop after the year 2000, there are the Korea Culture Arts Foundation fund, Ministry of Culture and Tourism Republic Korea Fund and Seoul City Fund.&lt;0x0d&gt;
+          <t>Operation funding of Loop has beeen assisted by government fund, entreprise sponsorship and private donation.
+As government funding, which has been given to Loop after the year 2000, there are the Korea Culture Arts Foundation fund, Ministry of Culture and Tourism Republic Korea Fund and Seoul City Fund.
 For entreprise fund, Loop submits a planning proposal of every individual exhibition to entreprisers to get a but, but this is not the stable supporting system.</t>
         </is>
       </c>
@@ -6922,6 +7162,10 @@
       <c r="AJ54" t="n">
         <v>1</v>
       </c>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7058,6 +7302,10 @@
       <c r="AJ55" t="n">
         <v>1</v>
       </c>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7190,6 +7438,26 @@
       <c r="AJ56" t="n">
         <v>1</v>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>I don't know whether we're responding to the current context. But Lieu-Comun, has renegotiated since 2010 with a horizontal and democratic function. The team of 4 people is rewarded in the same way as any of its age, its level of study, its post and its experience. There's no direction, it's not the artistic direction that leads, everything is decided in common, we're trying to be most honest about our name ... I don't know if it responds to the current context but we see that it causes as much trouble as the levels of our institutional partners.</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>Lieu-Common is obviously a work, but it is also a collective work, built both by its founder and members, its office, its CA, the artists who live it and the public who are its users. Lieu-Comun is a living body that is not controlled by a person but by a minority community, different, moving and changing. It is also our entry into the city by offering a typology outside the cultural field, at the same place of manufacture with workshops of artists, place of professionalization with formations, place of residences, place of international exchange, place of production, place of production, place of origin, place of consciousness and place of finality for us.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7218,18 +7486,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">2, rue des portes Mordelaises </t>
+          <t>2, rue des portes Mordelaises</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">mercredi- samedi 15 h - 20 h /// Wed - Sat 3PM - 8PM </t>
+          <t>mercredi- samedi 15 h - 20 h /// Wed - Sat 3PM - 8PM</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>STANDARDS est une association qui existe depuis 2008 à travers un espace d’exposition d’art contemporain. Il est situé depuis 2011 en plein cœur de la ville de Rennes. A compter de 2014, l’association quitte l’espace d’exposition de Rennes et s’ouvre à des membres ponctuels, poursuivant son objectif de diffusion de l’art contemporain à plus large échelle.
-STANDARDS is an association existing since 2008 through an contemporary art's space. This is located since 2011 in the heart of the city of Rennes (Britanny). From 2014, the team leaves the art's space of Rennes and opens its projects to temporary members, keeping up its goal of contemporary art's diffusion to a larger scale.</t>
+          <t>STANDARDS is an association that has existed since 2008 through a contemporary art exhibition area. It has been located in the heart of the city of Rennes since 2011. From 2014, the association leaves the scope of Rennes exhibition and opens to point members, pursuing its goal of dissemination of contemporary art to a wider extent. STANDARDS is an association existing since 2008 through an contemporary art's space. This has been located since 2011 in the heart of the city of Rennes (Britney). From 2014, the team leaves the art's space of Rennes and opens its projects to temporary members, keeping up its goal of contemporary art's wide dissemination.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7240,7 +7507,8 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>With an annual programming of dozens of projects in situ and out-of-morrows, Standards, composed of artists and exhibitors, question the relationship between these two bodies of meteors within a project of visual art. More than an experimental space than a classical exhibition site, Standards tries to re-examine the place of authority or not of the Commissioner face the artist. Thus, for each new project, the team asks different formats and forms of exhibitions in view of the unique proposals. Some artists are invited: David Ancelin, Nicolas Chardon, Charlie Jeffery, Aurelien Mole. With an annual program of a dozen projects in</t>
+          <t>Avec une programmation annuelle d’une dizaine de projets in situ et hors-les-murs, Standards, composé de d’artistes et de commissaires d’exposition mettent en question le rapport entre ces deux corps de métiers au sein d’un projet d’art visuel. Plus un espace expérimental qu’un lieu d’exposition classique, Standards tente de remettre en question la place d’autorité ou non du commissaire face à l’artiste. Ainsi, pour chaque nouveau projet, l’équipe interroge différents formats et formes d’exposition en imaginant des propositions uniques. Quelques artistes invités : David Ancelin, Nicolas Chardon, Aurélie Godard, Charlie Jeffery, Aurélien Mole.
+With an annual program of a dozen projects per year in and out of the exhibition’s space, STANDARDS, composed with artists and curators, question the relationship between these two activities in the context of a visual art’s project.More a experimental space than a classic exhibition’s space, STYANDARDS tries to call into question the authorities, or non authority, of a curator in front of an artist. Thus, for each new project, the team interrogates different shapes and formats of exhibition imagining unique propositions. A few invited artists: David Ancelin, Nicolas Chardon, Aurélie Godard, Charlie Jeffery, Aurélien Mole.</t>
         </is>
       </c>
       <c r="M57" t="b">
@@ -7329,6 +7597,10 @@
       <c r="AJ57" t="n">
         <v>1</v>
       </c>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7457,6 +7729,10 @@
       <c r="AJ58" t="n">
         <v>1</v>
       </c>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7581,6 +7857,10 @@
       <c r="AJ59" t="n">
         <v>1</v>
       </c>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7699,6 +7979,10 @@
       <c r="AJ60" t="n">
         <v>1</v>
       </c>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7730,7 +8014,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Du mercredi au samedi de 14h à 19h (sauf jours fériés) et sur rdv</t>
+          <t>Du mercredi au samedi de 14h à 19h (sauf jours fériés) et sur rdv</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -7819,6 +8103,10 @@
       <c r="AJ61" t="n">
         <v>1</v>
       </c>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7937,6 +8225,10 @@
       <c r="AJ62" t="n">
         <v>1</v>
       </c>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7971,7 +8263,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">It has already been ten years that “art space pool”(former alternative space pool, here in after pool) has sustained itself as one of rare artists-run contemporary art spaces based in Seoul, Korea. As most of national art community, and some of international art community, may know, pool is a non-profit art organization initiated and founded collectively by artists, artists-curators and art critics back in 1999. Reflecting the historical enterprise pool has built so far for over a decade, 2010 pool starts its new chapter of an organizational career with a vision of “integrity amid openness.” pool is honored to inherit the historical legacy of autonomy and criticality voiced by artists themselves throughout the modern and contemporary art of Korea, and is responsible for sharing the legacy with a wider circle of cultural producers worldwide through more various programs and activities. From the last winter, pool and its newly appointed director have prepared for another big leap in the history of pool from a local art organization towards an art institution interconnecting busy flow between trans-local contemporary art scenes of today. Some of the most visible and distinct features of new 2010 pool are the change of its official name and of its physical space, which hopefully tells more open, yet strong manifestation of its institutional identity and agenda slightly in a different method and tone. The new name, “art space pool” indicates pool is still a platform for supporting art experimentations and producing new ideas, but not strictly serving for a registered notion of an alternative itself. 2010 pool rather attempts to diversify the kinds of alternative by developing various ways and modes of encounters, relationships and collaborations among cultural producers and the public. Pool respects its institutional identity as an artists-run organization and fosters the value of reality, action, utterance and institution of critique in contemporary art praxis. And the year 2010 is the time when pool re-launches itself for balanced dedication to its original mission and contemporary trans-regional trajectory of art practices today. The new space, new bilingual website, new international networks, new public programs, new institutional partnership programs and even new staffs of 2010 pool greet every one of you at the onset of 2010 season. </t>
+          <t>It has already been ten years that “art space pool”(former alternative space pool, here in after pool) has sustained itself as one of rare artists-run contemporary art spaces based in Seoul, Korea. As most of national art community, and some of international art community, may know, pool is a non-profit art organization initiated and founded collectively by artists, artists-curators and art critics back in 1999. Reflecting the historical enterprise pool has built so far for over a decade, 2010 pool starts its new chapter of an organizational career with a vision of “integrity amid openness.” pool is honored to inherit the historical legacy of autonomy and criticality voiced by artists themselves throughout the modern and contemporary art of Korea, and is responsible for sharing the legacy with a wider circle of cultural producers worldwide through more various programs and activities. From the last winter, pool and its newly appointed director have prepared for another big leap in the history of pool from a local art organization towards an art institution interconnecting busy flow between trans-local contemporary art scenes of today. Some of the most visible and distinct features of new 2010 pool are the change of its official name and of its physical space, which hopefully tells more open, yet strong manifestation of its institutional identity and agenda slightly in a different method and tone. The new name, “art space pool” indicates pool is still a platform for supporting art experimentations and producing new ideas, but not strictly serving for a registered notion of an alternative itself. 2010 pool rather attempts to diversify the kinds of alternative by developing various ways and modes of encounters, relationships and collaborations among cultural producers and the public. Pool respects its institutional identity as an artists-run organization and fosters the value of reality, action, utterance and institution of critique in contemporary art praxis. And the year 2010 is the time when pool re-launches itself for balanced dedication to its original mission and contemporary trans-regional trajectory of art practices today. The new space, new bilingual website, new international networks, new public programs, new institutional partnership programs and even new staffs of 2010 pool greet every one of you at the onset of 2010 season.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -8053,6 +8345,10 @@
       <c r="AJ63" t="n">
         <v>1</v>
       </c>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8083,7 +8379,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brain Factory is a private gallery and non-profit organization founded in 2003 by Lee Sukjin and Tom Lee, who are dedicated to promoting Korean contemporary art and artists, and providing consulting services to new and young artists to improve the presentation of their exhibitions. The Brain Factory also serves as an open studio for young artists in order to encourage their creativity and confidence stepping out into the art world. Initiated by the gallery director Tom Lee, with workshops and training for young Korean artists, the Brain Factory has served both as gallery and studio for up and coming local artists ever since. </t>
+          <t>Brain Factory is a private gallery and non-profit organization founded in 2003 by Lee Sukjin and Tom Lee, who are dedicated to promoting Korean contemporary art and artists, and providing consulting services to new and young artists to improve the presentation of their exhibitions. The Brain Factory also serves as an open studio for young artists in order to encourage their creativity and confidence stepping out into the art world. Initiated by the gallery director Tom Lee, with workshops and training for young Korean artists, the Brain Factory has served both as gallery and studio for up and coming local artists ever since.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8094,8 +8390,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Approximately 10 to 11 exhibitions a year are on show at the Brain Factory. The whole plan and concept of each exhibition revolves entirely around the artist. In this place, no commercial concerns distract the young artists’ challenging and untamed creativity. The Brain Factory continues hosting a variety of experimental events and shows open to new and young artists. Compared to other galleries, artists and curators are able to carry out their exhibition program as a team throughout the year. It encourages active communication and involvement between curators and artists during the exhibition. This system is based on the fact that the best outcomes for an exhibition cannot depend on one side alone, but rather are generated by the cooperation between artists and curators.
- </t>
+          <t>Approximately 10 to 11 exhibitions a year are on show at the Brain Factory. The whole plan and concept of each exhibition revolves entirely around the artist. In this place, no commercial concerns distract the young artists’ challenging and untamed creativity. The Brain Factory continues hosting a variety of experimental events and shows open to new and young artists. Compared to other galleries, artists and curators are able to carry out their exhibition program as a team throughout the year. It encourages active communication and involvement between curators and artists during the exhibition. This system is based on the fact that the best outcomes for an exhibition cannot depend on one side alone, but rather are generated by the cooperation between artists and curators.</t>
         </is>
       </c>
       <c r="M64" t="b">
@@ -8174,6 +8469,10 @@
       <c r="AJ64" t="n">
         <v>1</v>
       </c>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8211,14 +8510,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Anne-Karine Peret (Présidente)&lt;0x0d&gt;
-Marion Cabanne (Vice-Présidente)&lt;0x0d&gt;
-Romain Tacciaria (Secrétaire général)&lt;0x0d&gt;
-Véronique Barbereau (Chargée du mécénat)&lt;0x0d&gt;
-Pierre-Antoine Irasque (Chargé du développement)&lt;0x0d&gt;
-Katia Leroi-Godet (artiste)&lt;0x0d&gt;
-Pierre Touron (artiste)&lt;0x0d&gt;
-Franck Noel (artiste)&lt;0x0d&gt;
+          <t>Anne-Karine Peret (Présidente)
+Marion Cabanne (Vice-Présidente)
+Romain Tacciaria (Secrétaire général)
+Véronique Barbereau (Chargée du mécénat)
+Pierre-Antoine Irasque (Chargé du développement)
+Katia Leroi-Godet (artiste)
+Pierre Touron (artiste)
+Franck Noel (artiste)
 Frédéric Levistre (artiste)</t>
         </is>
       </c>
@@ -8304,6 +8603,10 @@
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8335,8 +8638,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">mercredi au samedi de 14h30 à 18h30, sauf les jours fériés&lt;0x0d&gt;
-</t>
+          <t>mercredi au samedi de 14h30 à 18h30, sauf les jours fériés</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8390,10 +8692,9 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
-          <t xml:space="preserve">	&lt;0x0d&gt;
-_ L'Union Européenne&lt;0x0d&gt;
-&lt;0x0d&gt;
-La Ville de Valenciennes, le Département du Nord, la Région Nord Pas de Calais, le Ministère de la Culture &lt;0x0d&gt;
+          <t xml:space="preserve">	
+_ L'Union Européenne
+La Ville de Valenciennes, le Département du Nord, la Région Nord Pas de Calais, le Ministère de la Culture 
 et de la Communication</t>
         </is>
       </c>
@@ -8445,6 +8746,10 @@
       <c r="AJ66" t="n">
         <v>1</v>
       </c>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8547,6 +8852,10 @@
       <c r="AJ67" t="n">
         <v>1</v>
       </c>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8581,7 +8890,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bootlab est une organisation à but non lucratif pour le développement de projets indépendants. Fondé en 2000 et situé jusqu'en 2007 dans l'historique Telegrafenamt à Berlin-Mitte, bootlab réside désormais dans le tout aussi historique Stadtbad Wedding, alias stattbad ; bootlab fournit des studios, des espaces de production et des bureaux pour les groupes et les individus (activistes, artistes, conservateurs, ingénieurs, cinéastes, programmeurs, éditeurs, écrivains, etc.) qui travaillent avec les anciennes et/ou les nouvelles technologies médiatiques.Bootlab is a non-profit organisation for the advancement of independent projects. Founded in 2000 and until 2007 located in the historic Telegrafenamt in Berlin-Mitte, by now bootlab resides in the likewise historic Stadtbad Wedding, aka stattbad; bootlab provides studio, production and office space for groups and individuals (activists, artists, curators, engineers, filmmakers, programmers, publishers, writers etc.) working with old and/or new media technology.</t>
+          <t>Boatlab is a non-profit organization for the development of independent projects. Founded in 2000 and established up to 2007 in the history of Telegrafenamt in Berlin-Mitte, boatlab lives now in all the same history of Stadtbad Wedding, allias stattbad ; boatlab provides studios, production spaces and offices for groups and individuals (activists, artists, engineers, engineers, programmers, editors, editors, writers, etc.) who work with older and/or new media technologies. Bootlab is a non-profit organization for the development of independent projects. Foundbad in 2000 and until 2007 located in the historical Telegrapheramtamt in Berlin-Mitwitts, and narratives in</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -8661,6 +8970,10 @@
       <c r="AJ68" t="n">
         <v>1</v>
       </c>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -8777,6 +9090,10 @@
       <c r="AJ69" t="n">
         <v>1</v>
       </c>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8813,12 +9130,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>40mcube est un espace d’exposition, une structure de production d’œuvres, un lieu de résidences d’artistes et un bureau d’organisation de projets d’art contemporain. 40mcube développe plusieurs axes de recherches : 40mcube-expositions, 40mcube-éditions, 40mcube-AV qui coproduit avec le secteur de l’audiovisuel des vidéos d’artistes, et enfin 40mcube-espace public qui travaille à des projets artistiques prenant place dans l’espace public. Le travail de production, d’exposition et de médiation est généré ou suivi par une réflexion sur l’art actuel qui se matérialise par des éditions critiques. 40mcube is an exhibition space, a production studio, an artist-in-residence space and an office of organization for contemporary art projects. 40mcube has developed several different sectors: 40mcube – exhibition; 40mcube – edition; 40mcube AV, which co-produces artists' videos with the audiovisual sector; 40mcube – public space, which works with artistic projects taking place in a public space. This process of production, from exhibitions to mediation, is made through a reflection on contemporary art, which is further shown through 40mcube’s published editions.</t>
+          <t>40mcube is an exhibition area, a production structure of works, a place of art residence and an organization office of contemporary art projects. 40mcube develops several research axes: 40mcube-exposures, 40mcube-editions, 40mcube-AV that co-produces with the audio-visual sector of artists' videos, and finally 40mcube-public works on artistic projects taking place in public space. The work of production, exhibition and media is generated or is followed by a reflection on the current art that is produced by critical editions. 40mcube is an exhibition space, a studio, an artist-in-restudent space and an organization of 40ms.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direction et commissariat des expositions - Director and curator : Anne Langlois &amp; Patrice Goasduff.&lt;0x0d&gt;
+          <t xml:space="preserve">Direction et commissariat des expositions - Director and curator : Anne Langlois &amp; Patrice Goasduff.
 </t>
         </is>
       </c>
@@ -8867,10 +9184,8 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>40mcube reçoit le soutien du ministère de la Culture et de la Communication – Drac Bretagne, du conseil régional de Bretagne, du conseil général d’Ille-et-Vilaine et de la ville de Rennes.&lt;0x0d&gt;
-&lt;0x0d&gt;
-40mcube bénéficie du concours d’Art Norac – association pour le mécénat d’art contemporain du groupe Norac.&lt;0x0d&gt;
-&lt;0x0d&gt;
+          <t>40mcube reçoit le soutien du ministère de la Culture et de la Communication – Drac Bretagne, du conseil régional de Bretagne, du conseil général d’Ille-et-Vilaine et de la ville de Rennes.
+40mcube bénéficie du concours d’Art Norac – association pour le mécénat d’art contemporain du groupe Norac.
 Avec le partenariat de Self Signal – Cesson-Sévigné, Icodia – Rennes, Radio Campus Rennes, de ParisART.</t>
         </is>
       </c>
@@ -8918,6 +9233,10 @@
       <c r="AJ70" t="n">
         <v>1</v>
       </c>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -8999,10 +9318,8 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Diagonale reçoit l'appui du Ministère de la Culture, des Communications et de la Condition féminine, du Conseil des Arts et des lettres du Québec, et du Conseil des Arts de Montréal.&lt;0x0d&gt;
-&lt;0x0d&gt;
-Diagonale est membre du Regroupement des Centres d'Artistes Autogérés du Québec et du Regroupement Pied Carré.&lt;0x0d&gt;
-&lt;0x0d&gt;
+          <t>Diagonale reçoit l'appui du Ministère de la Culture, des Communications et de la Condition féminine, du Conseil des Arts et des lettres du Québec, et du Conseil des Arts de Montréal.
+Diagonale est membre du Regroupement des Centres d'Artistes Autogérés du Québec et du Regroupement Pied Carré.
 Diagonale remercie Ricard pour sa contribution.</t>
         </is>
       </c>
@@ -9048,6 +9365,10 @@
       <c r="AJ71" t="n">
         <v>5</v>
       </c>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9172,6 +9493,10 @@
       <c r="AJ72" t="n">
         <v>1</v>
       </c>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -9296,6 +9621,10 @@
       <c r="AJ73" t="n">
         <v>1</v>
       </c>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -9327,7 +9656,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>du mercredi au samedi de 14h à 19h, entrée libre et sur rendez vous pour les visites de groupes.&lt;0x0d&gt;
+          <t>du mercredi au samedi de 14h à 19h, entrée libre et sur rendez vous pour les visites de groupes.
 Horaires de bureaux : du mardi au vendredi de 10h à 17h</t>
         </is>
       </c>
@@ -9429,6 +9758,10 @@
       <c r="AJ74" t="n">
         <v>1</v>
       </c>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -9551,6 +9884,10 @@
       <c r="AJ75" t="n">
         <v>1</v>
       </c>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9661,6 +9998,10 @@
       <c r="AJ76" t="n">
         <v>1</v>
       </c>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -9687,7 +10028,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasworks 155 Vauxhall Street </t>
+          <t>Gasworks 155 Vauxhall Street</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -9697,9 +10038,9 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Established in 1994, Gasworks is a contemporary art organisation based in South London, housing eleven artists' studios and offering a programme of exhibitions and events, artists’ residencies, international fellowships and educational projects. Seven studios are rented to London-based artists and four are reserved for the International Residency Programme for non-UK based artists. Gasworks hosts up to sixteen residencies a year, encouraging the exchange of ideas between international and local practitioners. The non-prescriptive and process-based nature of the residencies allows visiting artists to develop projects in response to their new context, or to conduct research benefiting from London’s resources. As a result, residencies generally culminate in an Open Studio. The residencies programme is also accompanied by activities such as talks and seminars, aiming to introduce the general public to international artists and their practice.The exhibition space accommodates four main projects a year, as well as a series of small-scale events. The programme includes solo and thematic exhibitions, screenings, workshops and seminars. Gasworks focuses on visual arts practice in its broadest sense, including design, documentary filmmaking and media art, amongst other areas of activity. These are all linked by a commitment to constantly reassess the position of artists within their wider cultural, social and political frameworks. 
+          <t>Established in 1994, Gasworks is a contemporary art organisation based in South London, housing eleven artists' studios and offering a programme of exhibitions and events, artists’ residencies, international fellowships and educational projects. Seven studios are rented to London-based artists and four are reserved for the International Residency Programme for non-UK based artists. Gasworks hosts up to sixteen residencies a year, encouraging the exchange of ideas between international and local practitioners. The non-prescriptive and process-based nature of the residencies allows visiting artists to develop projects in response to their new context, or to conduct research benefiting from London’s resources. As a result, residencies generally culminate in an Open Studio. The residencies programme is also accompanied by activities such as talks and seminars, aiming to introduce the general public to international artists and their practice.The exhibition space accommodates four main projects a year, as well as a series of small-scale events. The programme includes solo and thematic exhibitions, screenings, workshops and seminars. Gasworks focuses on visual arts practice in its broadest sense, including design, documentary filmmaking and media art, amongst other areas of activity. These are all linked by a commitment to constantly reassess the position of artists within their wider cultural, social and political frameworks. 
 The residencies and exhibitions programmes regularly cooperate, often to facilitate research and production for international artists invited to develop a project for the exhibitions and events programme. Gasworks runs a Participation programme which responds to, as well as operates independently from, the residencies and exhibitions. The programme aims to instigate dialogue and exchange through art, and to work with local groups and organisations to widen access to contemporary art.
-Find out more about Gasworks and how we work with artists in this short film produced by Artquest:http://bit.ly/GasworksIntroGasworks is also part of Triangle Network, an international network of artists and organisations set up in 1982 whose activities include residencies and workshops. Triangle provides Gasworks with unique connections to artists and organisations in more than thirty countries around the world. Each year, through the Arts Council England’s International Artists Fellowship Programme, Gasworks organises residencies for six to eight UK-based artists in one of the Triangle partners' organisations, in countries including Cuba, China, South Africa, Kenya and India. </t>
+Find out more about Gasworks and how we work with artists in this short film produced by Artquest:http://bit.ly/GasworksIntroGasworks is also part of Triangle Network, an international network of artists and organisations set up in 1982 whose activities include residencies and workshops. Triangle provides Gasworks with unique connections to artists and organisations in more than thirty countries around the world. Each year, through the Arts Council England’s International Artists Fellowship Programme, Gasworks organises residencies for six to eight UK-based artists in one of the Triangle partners' organisations, in countries including Cuba, China, South Africa, Kenya and India.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -9781,6 +10122,10 @@
       <c r="AJ77" t="n">
         <v>1</v>
       </c>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -9872,11 +10217,10 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;0x0d&gt;
-l'epicerie a une activité constante depuis plusieurs&lt;0x0d&gt;
-années et c'est produite notamment à la IV biennale du&lt;0x0d&gt;
-Monténégro de 2002, à l'institut Culturel Français de&lt;0x0d&gt;
-Varsovie en 2003, à Lille 2004 au mois de juillet et,&lt;0x0d&gt;
+          <t>l'epicerie a une activité constante depuis plusieurs
+années et c'est produite notamment à la IV biennale du
+Monténégro de 2002, à l'institut Culturel Français de
+Varsovie en 2003, à Lille 2004 au mois de juillet et,
 bien entendu, a Paris plusieurs fois.</t>
         </is>
       </c>
@@ -9924,6 +10268,10 @@
       <c r="AJ78" t="n">
         <v>1</v>
       </c>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -9955,7 +10303,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du jeudi-samedi de 16h à 19h, et plus selon les événements in situ.  </t>
+          <t>Du jeudi-samedi de 16h à 19h, et plus selon les événements in situ.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -10052,6 +10400,10 @@
       <c r="AJ79" t="n">
         <v>1</v>
       </c>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -10192,6 +10544,10 @@
       <c r="AJ80" t="n">
         <v>1</v>
       </c>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -10231,7 +10587,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Mahé de Rosière&lt;0x0d&gt;
+          <t>Mahé de Rosière
 Dimitri Kiosseff</t>
         </is>
       </c>
@@ -10315,6 +10671,10 @@
       <c r="AJ81" t="n">
         <v>1</v>
       </c>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -10347,9 +10707,8 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">LAPSUS is an independent exhibition space and laboratory for creative projects. Our spaces are situated in the old paint factory “AZUR” on Peneș Curcanul street, nr. 3-5 in Timișoara (Romania).The artist-net is so fragile in its attempt to hold some bits of space together.
-Our spaces, art studios, media labs, a gallery, all are improvised and emergent from the cement up. Where once was industry, chemistry and bureaucracy, now there is a creative but precarious atmosphere. An organic net, very similar to a spider web, connects this and that studio, you can barely notice it because when there are no happenings it is invisible, like a microscopic organism or a parasite burrowed deep in its host. Links and signals are appearing, disappearing and reappearing at seemingly random times. The moment of the show or the ephemeral public stirrups – these aren’t long-lasting – but occasionally they happen as attention grabbing events. In the end all will be dissolved, its presence seems unessential.While an artspace shows up as a cocoon with its creature inside, when it is part of a net you can tell it’s a different kind when compared to its neighbor, who is maybe emerging from its own cocoon to fly elsewhere. This means each art space has its own rhythm, and while they populate the same ecosystem, there is both connection and disconnection between them, in style, principles, vision, ambition and aesthetics. I can even hear David Attenborough whisper observations about this endangered species called the emerging artist on a TV channel named Artist-Run Planet: there are no two members of the same species which share the same characteristics.A conglomerate of such spaces can only give the impression of something durable and stable. It can help one feel secure for a while, but it functions like an organism which creates more fragility than it actually manages to reinforce.Lapsus was founded in 2017 by curator Alex Boca.
-</t>
+          <t>LAPSUS is an independent exhibition space and laboratory for creative projects. Our spaces are situated in the old paint factory “AZUR” on Peneș Curcanul street, nr. 3-5 in Timișoara (Romania).The artist-net is so fragile in its attempt to hold some bits of space together.
+Our spaces, art studios, media labs, a gallery, all are improvised and emergent from the cement up. Where once was industry, chemistry and bureaucracy, now there is a creative but precarious atmosphere. An organic net, very similar to a spider web, connects this and that studio, you can barely notice it because when there are no happenings it is invisible, like a microscopic organism or a parasite burrowed deep in its host. Links and signals are appearing, disappearing and reappearing at seemingly random times. The moment of the show or the ephemeral public stirrups – these aren’t long-lasting – but occasionally they happen as attention grabbing events. In the end all will be dissolved, its presence seems unessential.While an artspace shows up as a cocoon with its creature inside, when it is part of a net you can tell it’s a different kind when compared to its neighbor, who is maybe emerging from its own cocoon to fly elsewhere. This means each art space has its own rhythm, and while they populate the same ecosystem, there is both connection and disconnection between them, in style, principles, vision, ambition and aesthetics. I can even hear David Attenborough whisper observations about this endangered species called the emerging artist on a TV channel named Artist-Run Planet: there are no two members of the same species which share the same characteristics.A conglomerate of such spaces can only give the impression of something durable and stable. It can help one feel secure for a while, but it functions like an organism which creates more fragility than it actually manages to reinforce.Lapsus was founded in 2017 by curator Alex Boca.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10435,6 +10794,10 @@
       <c r="AJ82" t="n">
         <v>1</v>
       </c>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10537,6 +10900,10 @@
       <c r="AJ83" t="n">
         <v>1</v>
       </c>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10643,6 +11010,10 @@
       <c r="AJ84" t="n">
         <v>1</v>
       </c>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -10745,6 +11116,10 @@
       <c r="AJ85" t="n">
         <v>1</v>
       </c>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -10865,6 +11240,10 @@
       <c r="AJ86" t="n">
         <v>1</v>
       </c>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -10980,6 +11359,10 @@
       <c r="AJ87" t="n">
         <v>1</v>
       </c>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -11102,6 +11485,10 @@
       <c r="AJ88" t="n">
         <v>1</v>
       </c>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -11179,7 +11566,7 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr">
         <is>
-          <t xml:space="preserve">one gee in fog bénéficie du soutien du pour-cent culturel migros, de la fplce, de la loterie romande et du fond cantonal d'art contemporain - république et canton de genève.&lt;0x0d&gt;
+          <t xml:space="preserve">one gee in fog bénéficie du soutien du pour-cent culturel migros, de la fplce, de la loterie romande et du fond cantonal d'art contemporain - république et canton de genève.
 </t>
         </is>
       </c>
@@ -11227,6 +11614,10 @@
       <c r="AJ89" t="n">
         <v>1</v>
       </c>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11266,9 +11657,9 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Hannah Théveneau, présidente&lt;0x0d&gt;
-Rémy Lieveloo, secrétaire et directeur artistique&lt;0x0d&gt;
-Julien Dupuy, régisseur&lt;0x0d&gt;
+          <t>Hannah Théveneau, présidente
+Rémy Lieveloo, secrétaire et directeur artistique
+Julien Dupuy, régisseur
 Jérôme Lieveloo, trésorier</t>
         </is>
       </c>
@@ -11348,6 +11739,10 @@
       <c r="AJ90" t="n">
         <v>1</v>
       </c>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -11379,10 +11774,10 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Bureaux&lt;0x0d&gt;
-Lundi au vendredi de 9h à 17h, Galeries&lt;0x0d&gt;
-Mercredi au dimanche de 12h à 17h, Lundi et mardi sur rdv&lt;0x0d&gt;
-Ateliers&lt;0x0d&gt;
+          <t>Bureaux
+Lundi au vendredi de 9h à 17h, Galeries
+Mercredi au dimanche de 12h à 17h, Lundi et mardi sur rdv
+Ateliers
 Lundi au vendredi de 9h à 17h</t>
         </is>
       </c>
@@ -11393,13 +11788,13 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>François Simard&lt;0x0d&gt;
-Président, &lt;0x0d&gt;
-Norbert Langlois&lt;0x0d&gt;
-Vice-président, &lt;0x0d&gt;
-Isabelle Demers&lt;0x0d&gt;
-Trésorière, Jeffrey Poirier&lt;0x0d&gt;
-Secrétaire, Florent Cousineau&lt;0x0d&gt;
+          <t>François Simard
+Président, 
+Norbert Langlois
+Vice-président, 
+Isabelle Demers
+Trésorière, Jeffrey Poirier
+Secrétaire, Florent Cousineau
 Administrateur</t>
         </is>
       </c>
@@ -11481,6 +11876,10 @@
       <c r="AJ91" t="n">
         <v>1</v>
       </c>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -11595,6 +11994,10 @@
       <c r="AJ92" t="n">
         <v>1</v>
       </c>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -11705,6 +12108,10 @@
       <c r="AJ93" t="n">
         <v>1</v>
       </c>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -11845,6 +12252,10 @@
       <c r="AJ94" t="n">
         <v>1</v>
       </c>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -11967,6 +12378,10 @@
       <c r="AJ95" t="n">
         <v>1</v>
       </c>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12089,6 +12504,10 @@
       <c r="AJ96" t="n">
         <v>1</v>
       </c>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -12203,6 +12622,10 @@
       <c r="AJ97" t="n">
         <v>1</v>
       </c>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -12229,13 +12652,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wilhelminapark 53 </t>
+          <t>Wilhelminapark 53</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pendant les expositions : Vend., Sam. et Dim 13h00-17h00 &lt;0x0d&gt;
-</t>
+          <t>Pendant les expositions : Vend., Sam. et Dim 13h00-17h00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -12330,6 +12752,10 @@
       <c r="AJ98" t="n">
         <v>1</v>
       </c>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -12356,7 +12782,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">231 11th Avenue </t>
+          <t>231 11th Avenue</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12456,6 +12882,10 @@
       <c r="AJ99" t="n">
         <v>1</v>
       </c>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -12487,7 +12917,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Open during exhibitions&lt;0x0d&gt;
+          <t>Open during exhibitions
 and by appointment.</t>
         </is>
       </c>
@@ -12504,7 +12934,7 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t xml:space="preserve">STUDIOThe Number Shop studios provides it's residents with a defined personal space, as well as shared floor space in which to work. Facilities include; wireless internet throughout, a shared store facility, tools and equipment, kitchen, W.C. and reception area. Studio Resident artists can use the Project Space between exhibitions and have 24 hour access to the building.GALLERYTNS hosts exhibitions from visiting artists in our Project Space. The Project Space (3.3 x 3.8m) has 3 white wall-space aspects as well as large street facing windows with a roller blind that can be used as a projection screen. There is access to the kitchen and WC during events and full disabled access.Exhibitions &amp; ProposalsIf you would like to submit a proposal for an exhibition in our Project Space please contact ali@thenumbershop.org We welcome solo shows from external practitioners, as well as small-mid size groups who can think of inventive ways to work with the room's modest dimensions. TNS is keen to build relationships with artist collectives, galleries and cultural institutions across Scotland and beyond. If you are interested in working together or discussing a project we would be very happy to hear from you. </t>
+          <t>STUDIOThe Number Shop studios provides it's residents with a defined personal space, as well as shared floor space in which to work. Facilities include; wireless internet throughout, a shared store facility, tools and equipment, kitchen, W.C. and reception area. Studio Resident artists can use the Project Space between exhibitions and have 24 hour access to the building.GALLERYTNS hosts exhibitions from visiting artists in our Project Space. The Project Space (3.3 x 3.8m) has 3 white wall-space aspects as well as large street facing windows with a roller blind that can be used as a projection screen. There is access to the kitchen and WC during events and full disabled access.Exhibitions &amp; ProposalsIf you would like to submit a proposal for an exhibition in our Project Space please contact ali@thenumbershop.org We welcome solo shows from external practitioners, as well as small-mid size groups who can think of inventive ways to work with the room's modest dimensions. TNS is keen to build relationships with artist collectives, galleries and cultural institutions across Scotland and beyond. If you are interested in working together or discussing a project we would be very happy to hear from you.</t>
         </is>
       </c>
       <c r="M100" t="b">
@@ -12579,6 +13009,10 @@
       <c r="AJ100" t="n">
         <v>1</v>
       </c>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -12705,6 +13139,10 @@
       <c r="AJ101" t="n">
         <v>1</v>
       </c>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -12829,6 +13267,10 @@
       <c r="AJ102" t="n">
         <v>1</v>
       </c>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -12870,8 +13312,8 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>MARIE-CECILE CONILH DE BEYSSAC, présidente&lt;0x0d&gt;
-MAUD BASTIDE, trésorière&lt;0x0d&gt;
+          <t>MARIE-CECILE CONILH DE BEYSSAC, présidente
+MAUD BASTIDE, trésorière
 JULES GUISSART , secretaire</t>
         </is>
       </c>
@@ -12955,6 +13397,10 @@
       <c r="AJ103" t="n">
         <v>1</v>
       </c>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -13068,6 +13514,10 @@
       <c r="AJ104" t="n">
         <v>1</v>
       </c>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -13208,6 +13658,10 @@
       <c r="AJ105" t="n">
         <v>1</v>
       </c>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13316,6 +13770,10 @@
       <c r="AJ106" t="n">
         <v>1</v>
       </c>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -13361,7 +13819,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zona non profit art space and zona archives in Florenceby Maurizio Nannucci
+          <t>Zona non profit art space and zona archives in Florenceby Maurizio Nannucci
 Zona was created in 1974 out of the need and desire of a group of young artists to infiltrate Florence with contemporary art; the city is an environment historically inclined to maintain the status-quo and tradition, and is not open to change. Only with a profound knowledge of the city's social, political, cultural, and economic mechanisms, can the extraordinary significance of the artist-run space Zona and what the collective represented be appreciated. In the 1970s there was huge international resistance to the establishment art galleries and to the ever greater power being acquired by militant criticism. As a result, many artists claimed their own autonomy, and undertook to create a strategic alternative circuit that would provide a direct link between their own work and the media, modifying the social status of culture and of its environment. Having abandoned 1968-inspired utopias, there was a move toward transparent, independent operations run by the artists themselves. By adopting Walter Benjamin's ideas about the reproducibility of art and Marshall McLuhan's concept of electronic multimedia forms, the artists aimed to eliminate the traditional qualitative parameters of art and to adopt new forms of anti-conformist behavior that would transform the artist’s role in society.  Zona was founded as a nonprofitorganization and space run by artists, architects, and musicians who were living and working in Florence and Tuscany: Maurizio Nannucci, Paolo Masi, Mario Mariotti, Giuseppe Chiari, Massimo Nannucci, Alberto Moretti, Alberto Mayr and Gianni Pettena. The exhibition space was on the Via San Niccolò 119r, inside the historical city center. The founding of Zona took place during a period of great upheaval; a small group of people with great vision and a high level of professionalism undertook to bring the cultural scene in Florence into the contemporary world, and visa versa. As well as Zona, there were galleries such as Schema and Area, the Centro Di publishing company, and video works created by Art Tapes 22 and Edizioni Exempla. All these initiatives helped bring about a period of extreme cultural ferment in the city, driven by the energy of a new generation of artists.
 Zona ProgramFrom the very beginning the Zona collective decided that information and the exhibition program should be the deciding factors in the identity and activities of the space, rather than individual self-conceit and self-reflecting narcissism. The strategy of opening up the exchange to the international art world meant that different cultures and experimental operative methods became part of Zona’s collective actions. Zona carefully cultivated a network of contacts and shared experiences with artists from different disciplines and tendencies from emerging contemporary fields. For this purpose, Zona People were engaged at Zona, and worked without receiving any financial remuneration. As a further programmatic decision, the members of Zona reinforced their definition of themselves as an integrated body or collective. The confrontation of different disciplines and personalities became a driving force that contributed to the identity of Zona as an organization that was non-hierarchical and led by democratic ideas such as that art production should be inhomogeneous, contradictory, varied and articulate, diffuse and noisy, and non-identifiable in traditional terms, values, and expectations.  
 Autonomy and IndependenceZona’s connection with the local public and governmental institutions was characterized by an operative independence and autonomy; thus it was only rarely possible to present exhibitions such as Made in Florence, and others devoted to artists' books and performance. Zona differentiated itself from cultural institutions, and was responsive to sudden changes in the art world. It quickly became an internationally recognized—and preferred—channel for artistic activity, especially when compared with the lethargy and indifference of local institutions. Zona became a pure cultural concept, with a multilingual and multi-ethnic composition, a space that was neither shared nor transitory, a shelter in thesteppe, an haven in the desert, in which the artist, like a nomad or explorer, momentarily finds hospitality and feels welcome. The choice of being precarious and semi-clandestine was a very conscious one; it was felt that it was necessary to ignore the certainties of tried and tested methods and communication. This choice entailed certain difficulties, both in terms of how the organization was run as well as financial concerns—it was necessary to find approximately $1,000 a year to support general expenses. In spite of its precarious financial situation, and thanks to its agile and flexible structure and dense network of contacts, Zona was able to realize more than 250 events, exhibitions, concerts, performances, installations, lectures, and video and film presentations.Zona’s program received international acclaims, and established Zona’s reputation on the international contemporary art circuit in the 1970s and 1980s. 
@@ -13373,8 +13831,7 @@
 Crossing DisciplinesZona Architettura Corretta Londinese (1979), curated by Gianni Pettena with the British Council and the Architectural Association in London's cooperation, proposed, on a weekly basis, an overview of the emerging school of London's young architects who approached their practice through research into the environment and physical space. John Andrews, Nigel Coats, Christopher Harding, Antonio Lagarto, Jenny Löwe, John Ryba, Trisha Pringle, and Peter Wilson followed one another with installations produced and carried out in situ, as interpretations of Zona’s space. Their installations used post-conceptual spatial language and were far from being purely graphic representations of real constructions; these interventions acted as references for those by previous architects such as Lapo Binazzi/UFO, Michele De Lucchi/Cavart, Ugo La Pietra, Adolfo Natalini/Superstudio, Gianni Pettena, who were part of the Architettura Radicale group. In May 1984 Gianni Pettena also organized the Theatrium Artium review, with 12 international architects' plans for the same numbers of pavilions around the amphitheatre in the Cascine Park in Florence.On the occasion of the inauguration of the Istituto Patafisico per l'Etruria and the Proto-Istituto Alternativo Zona,the documents and editions of the College de ’Pataphisique, were shown in Italy for the first time. ZonaPatafisica, 1981, curated by Maurizio Nannucci and Thierry Foulc, presented material from the College de ’Pataphisique archive, with over three hundred publications of books, magazine, cards, booklets by Antonin Artaud, Jean Dubuffet, Marcel Duchamp, Max Ernst, Lucio Fontana, Alfred Jarry, Raymond Queneau, and Man Ray. In 1977, more than ten years before the Centre Georges Pompidou in Paris, Maurizio Nannucci curated an exhibition that gathered together material relating to Situationism, some 20 years after its creation. Zona Internationale Situationniste presented magazines, books, films, and original articles written by the protagonists, as well as related materials from all over Europe—a kind of free consulting library. The opening was memorable for the unexpected presence of Guy Debord.For the exhibition Zona Invitation Postcards in December 1977, Maurizio Nannucci asked Pier Luigi Tazzi and Luciano Bartolini to carry out a first critical enquiry into the unusual subject of invitation cards—not only the exhibition invitation cards sent by galleries and museums, but also those sent by the artists themselves. A series of categories proposed, through the presentation of over three thousands examples collected by Exempla Archive, the creative and original elements that artists use to send messages and to document their own work.
 Zona Films, Videos, and Multimedia More than once Zona'sspace was turned into a cinema with projections of artist's films. Zona Artist's Films (1976) was an international festival organized by Maurizio Nannucci and Andrea Granchi, which lasted over three months with 40 days of projections. There were also monographic evenings in which many artists took part (Joseph Beuys, Mari Boyen, Marcel Broothaers, Antonio Dias, Herbert Distel, Terry Fox, Dan Graham, Gordon Matta-Clark, Alberto Moretti, Massimo Nannucci, Bruce Nauman, Dennis Oppenheim, Luca Patella, Angela Ricci Lucchi &amp; Yervant Gianikian, Franco Vaccari, etc.).Independent Super8 Films from Australia, 1983, was a festival presented in parallel to the exhibition A.U.S.T.R.A L.I.A,dedicated to new art scene of this continent. In 1975 Bill Viola’s first video installation, Vapore, was presented; at this time he was also contributing to the activity of Art Tapes 22 created by Maria Gloria Bicocchi. Collaborating with Bicocchi Zona organized meetings with Vito Acconci, Daniel Buren, Buckminster Fuller, Tadeusz Kantor, and Living Theatre. Video Arte in Gran Bretagne took place in 1984 and the complete video and film works of Gilbert &amp; George, realized with the assistence of the British Council, were presented. Zona and some of the collective’s artist-members were frequently invited to produce projects in public institutions and museums, often reworking and extending initiatives created in Via San Niccolò, or simply proposing the same projects again. Collaborations took place with the Archives of the Venice Biennale and the Moderna Museetin Stockholm for the Small Press Sceneexhibition, and with the City of Florence for the exhibitions Formato Lib(&amp;)ro, 1978, and Artists’ Books, 1978. The DAV archive (Documentazione Arti Visive, 1980–1982) was also created by Maurizio Nannucci for the City of Florence. Other collaborations were realized with the Paris Biennale;the Padiglione d’Arte Contemporanea in Milan; the Centre Georges Pompidou and Bibliothèque Nationalein Paris for Cent Livres d'Artistes Italiens (1981); as well as with MoMA, New York; the Frankfurter Kunstverein; the British Council, London; and Rai, Rome.
 Zona ArchivesEstablishing the Zona Archives at this time, and the start of its editorial activity was very important; material is still being added to the archives today. The material that has been collected includes: the small press collection, artists’ books (four thousand books), audioworks by artists with records and tapes of new music (over one thousand items), audioworks by artists and poets, and the concrete poetry collection (more than six thousand documents) with which the Exempla Archive's materials have been merged. Zona has not simply collected and released information, but also have their own autonomous editorial activity, Zona Editions, which has not limited itself to the publication of catalogues and books about Zona events, but has also produced (and continues to do so), records, artists’ books, editions, and multiples by artists such as Paul Armand Gette, John Armleder, Luciano Bartolini, Claude Closky, Robert Filliou, Rainer Ganahl, General Idea, John Giorno, Ian Hamilton Finlay, Dick Higgins, Joseph Kosuth, Robert Lax, James Lee Byars, Sol Lewitt, Paolo Masi, Jonathan Monk, Olivier Mosset, Massimo Nannucci, Maurizio Nannucci, Carsten Nicolai, John Nixon &amp; Marco Fusinato, Yoko Ono, Michael Snow, Rirkrit Tiravanija, Lawrence Weiner, Heimo Zobernig.   Although the artist-run space in Via San Nicolò 119r was closed in 1985, Zona's activity has continued through the archives and the organization of external events. Zona Secret Events (Daniel Buren, Terry Fox, General Idea, Ian Hamilton Finlay, Jenny Holzer, Barbara Kruger, James Lee Byars, Maurizio Nannucci, Lawrence Weiner, etc.) invites artists to intervene in different places in Florence with hidden (often clandestine) works. The presence of these works is voluntarily concealed and any search for them is helped only by insufficient clues. Zona Archives regularly supplies materials, documents, and works to art institutions that request them for their exhibitions. Zona has also produced exhibitions and events. Among these are A.P./Artists Photographs (John Baldessari, Christian Boltanski, Luciano Fabro, Fischli and Weiss, Dan Graham, Jenny Holzer, Barbara Kruger, Ed Ruscha, Cindy Sherman, etc. ), which took place at the Archivio Storico in Marciana, Isola d’Elba (1986), and A.B./Art in Bookform, organized by Maurizio Nannucci and Pier Luigi Tazzi at the Alvar Aalto Museum and the Pori Art Museum in Finland in 1987. Other projects curated by Maurizio Nannucci includeD.i.s.c.o.t.h.e.q.u.e (Maison du livre, de l’image et du son, Villeurbanne/Lyon, 1989), Bookmakers (Limoges, 1995), Murs de Son (Villa Arson, Nice, 1995), and Keeping Time, the sound archive of artists' audioworks (Zona, 1977) was shown at Villa Arson in Nice (1995), the École des Beaux Arts in Bourges (1996), the Kunstmuseum in Bregenz (1997), and the Palazzo delle Papesse in Siena (1998). Nannucci also curated the exhibitionZona People at Mamco, Centre d’art contemporain, Geneva, 2003. Zona’s objectives have never been to celebrate a particular moment of an artist's work, much less its own activity. Rather attention has always been concentrated on communication, information, and recording events that other organizations, with different remits and constraints, would not be able to record. The continuity of the commitment that has always been given to Zona has allowed it to explore areas in which it is possible to research and formulate new models of artistic methodologies and behaviors. It is precisely in terms of the continuity and the attention given to the immediate reception of events, many of which have been forgotten by more official artistic channels, that Zona has built its identity.
-Small Space, Great Ideas Zonaand its collective places itself in the sphere of an international communication network strongly characterized by ideological problematics that, alone, take on all the artistic (as well as non-artistic) questions of the 1970s and 1980s. The communication is reciprocal and is a base for further elaborations. In this way all the assumptions of non-participation,of delay, of communication's autism, of provincialism are demolished.The capacity and potential to receive everything places Zona in a unique position. Zona, venue of numerous strategic points, took Florence back to a communicative centralization through minimum and marginal signs. In 1985 the members of the Zona collective decided to bring an end to their activities as a group. As a result, the decision was made to close down the space in via San Niccolò 119r, so opening a new chapter in a story that is and will continue to be exemplary.It is to these people and to these events that these pages are dedicated. Memories, but without nostalgia. Bearing witness to a conscious decision, to a gentle but intense experience, and to a path that could possibly still be taken up today. For this reason, this experience cannot be dedicated only to one single place but to the world, and especially to all those artists and people who shared it and those who want to live it today.
- </t>
+Small Space, Great Ideas Zonaand its collective places itself in the sphere of an international communication network strongly characterized by ideological problematics that, alone, take on all the artistic (as well as non-artistic) questions of the 1970s and 1980s. The communication is reciprocal and is a base for further elaborations. In this way all the assumptions of non-participation,of delay, of communication's autism, of provincialism are demolished.The capacity and potential to receive everything places Zona in a unique position. Zona, venue of numerous strategic points, took Florence back to a communicative centralization through minimum and marginal signs. In 1985 the members of the Zona collective decided to bring an end to their activities as a group. As a result, the decision was made to close down the space in via San Niccolò 119r, so opening a new chapter in a story that is and will continue to be exemplary.It is to these people and to these events that these pages are dedicated. Memories, but without nostalgia. Bearing witness to a conscious decision, to a gentle but intense experience, and to a path that could possibly still be taken up today. For this reason, this experience cannot be dedicated only to one single place but to the world, and especially to all those artists and people who shared it and those who want to live it today.</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
@@ -13450,6 +13907,10 @@
       <c r="AJ107" t="n">
         <v>1</v>
       </c>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13482,14 +13943,7 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Hit – artist run space
-Hit est un espace d’art indépendant qui accueille des expositions, repas, événements, dédiés à la présentation et la diffusion de l’art contemporain. Actif depuis 2013, il est géré par Anne Minazio et Pavel Sofer. Hit accueille principalement des artistes suisses émergents et leurs donne la possibilité de produire des pièces inédites.
-Les artistes invités peuvent notamment intervenir sur l’architecture extérieure : la façade, l’architecture intérieure, dont certaines installations permanentes. Hit décloisonne arts plastiques et arts appliqués, défendant l’abolition de la hiérarchie entre ces disciplines. Peinture, installation, art culinaire, mode, design, architecture sont présentés.
-Hit édite également une collection d’éditions s’inspirant des événements de l’année écoulée.
-Hit – Artist run space
-Hit is a artistic independent space which shows exhibitions, meals, events, dedicated to the presentation and the distribution of contemporary art. Asset since 2013, it is managed by Anne Minazio and Pavel Sofer. Hit welcomes mainly emergent Swiss artists and give their the possibility to produce unpublished pieces.
-Invited artists acts especially on the exterior architecture: the facade, the interior design, among which certain permanent installations. Hit opens up fine arts and decorative arts, defending the abolition of the hierarchy between these disciplines. Paint, installation, art of cooking, fashion, design, architecture are presented.
-Hit also edit a collection of publishing being inspired by events of the past year.</t>
+          <t>Hit – artist run space Hit is an independent art area that welcomes exhibitions, meals, events, exhibitions, and the diffusion of contemporary art. Since 2013, it has been managed by Anne Minazio and Pavel Sofer. It is mainly hosted by Swiss artists emerging and gives them the opportunity to produce unique parts. The invited artists can in particular intervene on external architecture: the face, the interior architecture, their permanent installations.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -13573,6 +14027,10 @@
       <c r="AJ108" t="n">
         <v>1</v>
       </c>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -13697,6 +14155,10 @@
       <c r="AJ109" t="n">
         <v>1</v>
       </c>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -13824,6 +14286,10 @@
       <c r="AJ110" t="n">
         <v>1</v>
       </c>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -13911,7 +14377,7 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t>balak est géré par l'association le p.a.c.c.t, le processus artistique de création contemporaine temporaire&lt;0x0d&gt;
+          <t>balak est géré par l'association le p.a.c.c.t, le processus artistique de création contemporaine temporaire
 association de loi 1901</t>
         </is>
       </c>
@@ -13959,6 +14425,10 @@
       <c r="AJ111" t="n">
         <v>1</v>
       </c>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -14083,6 +14553,10 @@
       <c r="AJ112" t="n">
         <v>1</v>
       </c>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -14120,7 +14594,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candice Pétrillo, directrice de Zébra, Frédéric Latherrade, directeur de Buy-Sellf, Louise Couffignal, assistante de direction, chargée de communication&lt;0x0d&gt;
+          <t xml:space="preserve">Candice Pétrillo, directrice de Zébra, Frédéric Latherrade, directeur de Buy-Sellf, Louise Couffignal, assistante de direction, chargée de communication
 </t>
         </is>
       </c>
@@ -14204,6 +14678,10 @@
       <c r="AJ113" t="n">
         <v>1</v>
       </c>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -14318,6 +14796,10 @@
       <c r="AJ114" t="n">
         <v>1</v>
       </c>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -14430,6 +14912,10 @@
       <c r="AJ115" t="n">
         <v>1</v>
       </c>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14461,8 +14947,8 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>mercredi 12h-17h&lt;0x0d&gt;
-jeudi 12h-20h&lt;0x0d&gt;
+          <t>mercredi 12h-17h
+jeudi 12h-20h
 vendredi et samedi 12h-17h</t>
         </is>
       </c>
@@ -14473,8 +14959,8 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Emmanuelle Choquette, Directrice générale,&lt;0x0d&gt;
-Marie-Pier Bocquet, Coordonnatrice à la programmation, &lt;0x0d&gt;
+          <t>Emmanuelle Choquette, Directrice générale,
+Marie-Pier Bocquet, Coordonnatrice à la programmation, 
 Sandrine Briand, Responsable de l'accueil et des services aux membres</t>
         </is>
       </c>
@@ -14556,6 +15042,10 @@
       <c r="AJ116" t="n">
         <v>1</v>
       </c>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -14635,10 +15125,8 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>Tripode bénéficie des soutiens de la Ville de Rezé, du conseil régional des Pays de la Loire, du conseil général de Loire-Atlantique et de l’Etat - Préfecture de la région des Pays de la Loire-DRAC des Pays de la Loire.&lt;0x0d&gt;
-&lt;0x0d&gt;
-Les expositions présentées dans la galerie de l'Espace Diderot sont réalisées en partenariat avec l'arc, scène conventionnée, Rezé.&lt;0x0d&gt;
-&lt;0x0d&gt;
+          <t>Tripode bénéficie des soutiens de la Ville de Rezé, du conseil régional des Pays de la Loire, du conseil général de Loire-Atlantique et de l’Etat - Préfecture de la région des Pays de la Loire-DRAC des Pays de la Loire.
+Les expositions présentées dans la galerie de l'Espace Diderot sont réalisées en partenariat avec l'arc, scène conventionnée, Rezé.
 Tripode remercie chaleureusement Hippolyte Hentgen pour le dessin de son logo.</t>
         </is>
       </c>
@@ -14686,6 +15174,10 @@
       <c r="AJ117" t="n">
         <v>1</v>
       </c>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -14814,6 +15306,10 @@
       <c r="AJ118" t="n">
         <v>1</v>
       </c>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -14934,6 +15430,10 @@
       <c r="AJ119" t="n">
         <v>1</v>
       </c>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -15048,6 +15548,10 @@
       <c r="AJ120" t="n">
         <v>1</v>
       </c>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -15167,6 +15671,10 @@
       <c r="AJ121" t="n">
         <v>1</v>
       </c>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -15287,6 +15795,10 @@
       <c r="AJ122" t="n">
         <v>1</v>
       </c>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -15405,6 +15917,10 @@
       <c r="AJ123" t="n">
         <v>1</v>
       </c>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -15522,6 +16038,10 @@
       <c r="AJ124" t="n">
         <v>1</v>
       </c>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -15640,6 +16160,10 @@
       <c r="AJ125" t="n">
         <v>1</v>
       </c>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -15754,6 +16278,10 @@
       <c r="AJ126" t="n">
         <v>1</v>
       </c>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -15876,6 +16404,10 @@
       <c r="AJ127" t="n">
         <v>1</v>
       </c>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -15900,7 +16432,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boulevard Clovis, 15 </t>
+          <t>Boulevard Clovis, 15</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -15994,6 +16526,10 @@
       <c r="AJ128" t="n">
         <v>1</v>
       </c>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16113,6 +16649,10 @@
       <c r="AJ129" t="n">
         <v>1</v>
       </c>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16153,7 +16693,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lito Kattou and Leontios Toumpouris&lt;0x0d&gt;
+          <t xml:space="preserve">Lito Kattou and Leontios Toumpouris
 </t>
         </is>
       </c>
@@ -16233,6 +16773,10 @@
       <c r="AJ130" t="n">
         <v>1</v>
       </c>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16357,6 +16901,10 @@
       <c r="AJ131" t="n">
         <v>1</v>
       </c>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16485,6 +17033,26 @@
       <c r="AJ132" t="n">
         <v>1</v>
       </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>In 2013, Dos Mares found its origin in the artistic project and curatorial platform conceived by visual artists Ron Reyes Sevilla (Costa Rica) and Laurent le Bourhis (France), where their field of reflection and research is the ecosystem of art. Two Mares proposes interconnected devices, each of them dealing with political, social, economic or related dimensions, where the relationship between time, employment transition to work, the question of employment satisfaction, the value of research and production, environmental concerns, the role of industrials, the critical analysis of intercultural knowledge, the production of intercultural knowledge, the</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>Q2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>Yes. As the most conventional works, each proposal - which we call the device - has its own framework, its own foundation, its own duration, its own exposure, its own production methods, its own place of execution, etc. Each of these devices addresses a specific aspect of the world and takes a position in the system of art, and in Dos Mares we claim them as works of art. Two Mares are the devices that we use as artists. Ron Reyes Seville and Laurent Le Bourhis are the two of which we have named Dos Mares, and since 2013 it is also a cultural enterprise based on the foundation of the Marseilles and its national works.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -16603,6 +17171,10 @@
       <c r="AJ133" t="n">
         <v>1</v>
       </c>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -16721,6 +17293,10 @@
       <c r="AJ134" t="n">
         <v>1</v>
       </c>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -16829,6 +17405,10 @@
       <c r="AJ135" t="n">
         <v>1</v>
       </c>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -16947,6 +17527,10 @@
       <c r="AJ136" t="n">
         <v>1</v>
       </c>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -17063,6 +17647,10 @@
       <c r="AJ137" t="n">
         <v>1</v>
       </c>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -17094,8 +17682,8 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Tuesday – Friday, 11:00 AM – 5:00 PM&lt;0x0d&gt;
-Saturday, 12:00 PM – 5:00 PM&lt;0x0d&gt;
+          <t>Tuesday – Friday, 11:00 AM – 5:00 PM
+Saturday, 12:00 PM – 5:00 PM
 Closed on all public holidays</t>
         </is>
       </c>
@@ -17206,6 +17794,10 @@
       <c r="AJ138" t="n">
         <v>1</v>
       </c>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -17327,6 +17919,10 @@
       <c r="AJ139" t="n">
         <v>1</v>
       </c>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17451,6 +18047,10 @@
       <c r="AJ140" t="n">
         <v>1</v>
       </c>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -17573,6 +18173,10 @@
       <c r="AJ141" t="n">
         <v>1</v>
       </c>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -17694,6 +18298,10 @@
       <c r="AJ142" t="n">
         <v>1</v>
       </c>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -17812,6 +18420,10 @@
       <c r="AJ143" t="n">
         <v>1</v>
       </c>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -17926,6 +18538,10 @@
       <c r="AJ144" t="n">
         <v>1</v>
       </c>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -18041,6 +18657,10 @@
       <c r="AJ145" t="n">
         <v>1</v>
       </c>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -18072,7 +18692,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Wednesday–Friday, 12 pm–7 pm&lt;0x0d&gt;
+          <t>Wednesday–Friday, 12 pm–7 pm
 Saturday, 12 pm–5 pm</t>
         </is>
       </c>
@@ -18164,6 +18784,10 @@
       <c r="AJ146" t="n">
         <v>1</v>
       </c>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -18193,10 +18817,8 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuesday–Friday, 10 am–5 pm&lt;0x0d&gt;
-Saturday, 10 am–5 pm&lt;0x0d&gt;
-&lt;0x0d&gt;
-</t>
+          <t>Tuesday–Friday, 10 am–5 pm
+Saturday, 10 am–5 pm</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -18279,6 +18901,10 @@
       <c r="AJ147" t="n">
         <v>1</v>
       </c>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -18401,6 +19027,10 @@
       <c r="AJ148" t="n">
         <v>1</v>
       </c>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -18439,8 +19069,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t xml:space="preserve">articule was founded in 1979 and incorporated as a non-profit organization in 1980 by a group of young artists who wanted to create a place of multidisciplinary presentation focused on research and artistic experimentation. These artists have come together to rent a space on the de la Montagne Street in Montreal, and shared programming and management. articulates became part of, what was called at the time, the network of parallel galleries. The organization has subsequently moved a few times in the central neighborhoods of Montreal. Since 2006, it's been occupying a bright space in the multicultural and lively Mile End. In 2009-2010, articulates celebrated its thirtieth anniversary with a thematic programming and Event Fundraising Who's Who which brought together artists who contributed to the center during its history.
- </t>
+          <t>articule was founded in 1979 and incorporated as a non-profit organization in 1980 by a group of young artists who wanted to create a place of multidisciplinary presentation focused on research and artistic experimentation. These artists have come together to rent a space on the de la Montagne Street in Montreal, and shared programming and management. articulates became part of, what was called at the time, the network of parallel galleries. The organization has subsequently moved a few times in the central neighborhoods of Montreal. Since 2006, it's been occupying a bright space in the multicultural and lively Mile End. In 2009-2010, articulates celebrated its thirtieth anniversary with a thematic programming and Event Fundraising Who's Who which brought together artists who contributed to the center during its history.</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -18523,6 +19152,10 @@
       <c r="AJ149" t="n">
         <v>1</v>
       </c>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -18601,9 +19234,9 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr">
         <is>
-          <t>The Canada Council for the Arts&lt;0x0d&gt;
-The Ontario Arts Council&lt;0x0d&gt;
-The Trillium Foundation&lt;0x0d&gt;
+          <t>The Canada Council for the Arts
+The Ontario Arts Council
+The Trillium Foundation
 The City of Toronto through the Toronto Arts Council</t>
         </is>
       </c>
@@ -18649,6 +19282,10 @@
       <c r="AJ150" t="n">
         <v>1</v>
       </c>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -18682,7 +19319,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Ouverture uniquement pendant les expositions :&lt;0x0d&gt;
+          <t>Ouverture uniquement pendant les expositions :
 mercredi, samedi, dimanche 14h - 18h</t>
         </is>
       </c>
@@ -18772,6 +19409,10 @@
       <c r="AJ151" t="n">
         <v>1</v>
       </c>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -18882,6 +19523,10 @@
       <c r="AJ152" t="n">
         <v>1</v>
       </c>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -18924,9 +19569,9 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Founded in 1974 by a group of dedicated local artists, Artspace differs from many of the artist-run centres that formed in this early period. Artspace was established and sustained by a membership spread amongst smaller urban centres, rural areas and townships as part of a unique cultural milieu within the region. The organization received its non-profit, incorporated, charitable status in July 1977. Since it’s founding, Artspace has played a profound role in the development of contemporary Canadian art, creating a space for numerous prominent artists to present their work for the first time.
+          <t>Founded in 1974 by a group of dedicated local artists, Artspace differs from many of the artist-run centres that formed in this early period. Artspace was established and sustained by a membership spread amongst smaller urban centres, rural areas and townships as part of a unique cultural milieu within the region. The organization received its non-profit, incorporated, charitable status in July 1977. Since it’s founding, Artspace has played a profound role in the development of contemporary Canadian art, creating a space for numerous prominent artists to present their work for the first time.
 In July 2004 the Artspace gallery site was destroyed and its archives badly damaged by a major flood in downtown Peterborough. In September 2006 following several temporary relocations Artspace resettled at its current location at 378 Aylmer Street. With an expanse of floor to ceiling windows the centre maintains a prominent street-front presence in the busy downtown core of Peterborough, where. With additional presentation and workshop spaces the centre’s current location allows for the installation of larger, more ambitious installations of contemporary art, while also providing regional artists with adequate professional workspaces.
-In November 2014 the centre celebrated its 40th anniversary and marked the occasion with an interactive exhibition, publication, and public celebration titled “I Will Not Grow Old In Peterborough.” In 2016, after ten years at our current site, and after a history of regular relocation, the Artspace negotiated a new, long-term lease that will afford the centre locational stability through 2026. </t>
+In November 2014 the centre celebrated its 40th anniversary and marked the occasion with an interactive exhibition, publication, and public celebration titled “I Will Not Grow Old In Peterborough.” In 2016, after ten years at our current site, and after a history of regular relocation, the Artspace negotiated a new, long-term lease that will afford the centre locational stability through 2026.</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -19006,6 +19651,10 @@
       <c r="AJ153" t="n">
         <v>1</v>
       </c>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -19121,6 +19770,10 @@
       <c r="AJ154" t="n">
         <v>1</v>
       </c>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -19231,6 +19884,10 @@
       <c r="AJ155" t="n">
         <v>1</v>
       </c>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -19267,7 +19924,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOSWELL ROAD was set-up on the 29th November 2016 by artist duo Ruiz Stephinson (www.ruizstephinson.com) in their atelier. Every six weeks they clear the atelier completely and invite an artist, offering them an exhibition and a publication. They also curate a bouquet of flowers in the entrance, in tandem with the practice of the artist. </t>
+          <t>GOSWELL ROAD was set-up on the 29th November 2016 by artist duo Ruiz Stephinson (www.ruizstephinson.com) in their atelier. Every six weeks they clear the atelier completely and invite an artist, offering them an exhibition and a publication. They also curate a bouquet of flowers in the entrance, in tandem with the practice of the artist.</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -19351,6 +20008,10 @@
       <c r="AJ156" t="n">
         <v>1</v>
       </c>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -19473,6 +20134,10 @@
       <c r="AJ157" t="n">
         <v>1</v>
       </c>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -19593,6 +20258,10 @@
       <c r="AJ158" t="n">
         <v>1</v>
       </c>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -19711,6 +20380,10 @@
       <c r="AJ159" t="n">
         <v>1</v>
       </c>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -19825,6 +20498,10 @@
       <c r="AJ160" t="n">
         <v>1</v>
       </c>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -19943,6 +20620,10 @@
       <c r="AJ161" t="n">
         <v>1</v>
       </c>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -19950,7 +20631,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3 137</t>
+          <t>3 137</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -20059,6 +20740,10 @@
       <c r="AJ162" t="n">
         <v>1</v>
       </c>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -20179,6 +20864,10 @@
       <c r="AJ163" t="n">
         <v>1</v>
       </c>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -20299,6 +20988,10 @@
       <c r="AJ164" t="n">
         <v>1</v>
       </c>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -20415,6 +21108,10 @@
       <c r="AJ165" t="n">
         <v>1</v>
       </c>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -20531,6 +21228,10 @@
       <c r="AJ166" t="n">
         <v>1</v>
       </c>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -20647,6 +21348,10 @@
       <c r="AJ167" t="n">
         <v>1</v>
       </c>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -20761,6 +21466,26 @@
       <c r="AJ168" t="n">
         <v>1</v>
       </c>
+      <c r="AK168" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL168" t="inlineStr">
+        <is>
+          <t>A free programming space, based on the more or less successful meeting with works and artists...the everything that is visible from the street at any time, there is no tension.</t>
+        </is>
+      </c>
+      <c r="AM168" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN168" t="inlineStr">
+        <is>
+          <t>As the only manager of this place I consider to be a resurgent of my workshop, I think of it as an artistic project with the many evolutions of a creation...the place has continued to evolve since its creation, fortification and generation...Alaiin Sadania, founder of English Poteaus and the parallel site @poteauxandale</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -20792,8 +21517,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thursday to Saturday 3 to 6 pm or by appointment&lt;0x0d&gt;
-</t>
+          <t>Thursday to Saturday 3 to 6 pm or by appointment</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -20886,6 +21610,10 @@
       <c r="AJ169" t="n">
         <v>1</v>
       </c>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -20914,7 +21642,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve">59 rue Keyenveld </t>
+          <t>59 rue Keyenveld</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -20929,7 +21657,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Tommy Lecot, Ubay Martin, François Patoue&lt;0x0d&gt;
+          <t>Tommy Lecot, Ubay Martin, François Patoue
 et Maxime Souvent</t>
         </is>
       </c>
@@ -21009,6 +21737,10 @@
       <c r="AJ170" t="n">
         <v>1</v>
       </c>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -21127,6 +21859,10 @@
       <c r="AJ171" t="n">
         <v>1</v>
       </c>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -21241,6 +21977,10 @@
       <c r="AJ172" t="n">
         <v>1</v>
       </c>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -21361,6 +22101,10 @@
       <c r="AJ173" t="n">
         <v>1</v>
       </c>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -21471,6 +22215,10 @@
       <c r="AJ174" t="n">
         <v>1</v>
       </c>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -21591,6 +22339,10 @@
       <c r="AJ175" t="n">
         <v>1</v>
       </c>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -21693,6 +22445,10 @@
       <c r="AJ176" t="n">
         <v>1</v>
       </c>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -21803,6 +22559,10 @@
       <c r="AJ177" t="n">
         <v>1</v>
       </c>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -21913,6 +22673,10 @@
       <c r="AJ178" t="n">
         <v>1</v>
       </c>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -22023,6 +22787,10 @@
       <c r="AJ179" t="n">
         <v>1</v>
       </c>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -22030,7 +22798,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">798 District Limited </t>
+          <t>798 District Limited</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -22137,6 +22905,10 @@
       <c r="AJ180" t="n">
         <v>1</v>
       </c>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -22260,6 +23032,10 @@
       <c r="AJ181" t="n">
         <v>1</v>
       </c>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -22362,6 +23138,10 @@
       <c r="AJ182" t="n">
         <v>1</v>
       </c>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -22480,6 +23260,10 @@
       <c r="AJ183" t="n">
         <v>1</v>
       </c>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -22602,6 +23386,10 @@
       <c r="AJ184" t="n">
         <v>1</v>
       </c>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -22722,6 +23510,10 @@
       <c r="AJ185" t="n">
         <v>1</v>
       </c>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -22836,6 +23628,10 @@
       <c r="AJ186" t="n">
         <v>1</v>
       </c>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -22960,6 +23756,10 @@
       <c r="AJ187" t="n">
         <v>1</v>
       </c>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -23080,6 +23880,26 @@
       <c r="AJ188" t="n">
         <v>1</v>
       </c>
+      <c r="AK188" t="inlineStr">
+        <is>
+          <t>Q1 : Can you tell us how your structure responds, through its operating methods, to the current context and/or the context of its emergence?</t>
+        </is>
+      </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="AM188" t="inlineStr">
+        <is>
+          <t>Q2 : Do you think that your space, or the space in which you took part, can be considered a work of art? And if so, in what sense?</t>
+        </is>
+      </c>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t>Massimo Allevato &amp; Perfectitype Display, at Parme space display.com</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -23198,6 +24018,10 @@
       <c r="AJ189" t="n">
         <v>1</v>
       </c>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -23318,6 +24142,10 @@
       <c r="AJ190" t="n">
         <v>1</v>
       </c>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -23427,6 +24255,10 @@
       <c r="AJ191" t="n">
         <v>1</v>
       </c>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -23458,7 +24290,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Monday - Friday 15.00 - 18.30&lt;0x0d&gt;
+          <t>Monday - Friday 15.00 - 18.30
 Saturday and Sunday on appointment.</t>
         </is>
       </c>
@@ -23548,6 +24380,10 @@
       <c r="AJ192" t="n">
         <v>6</v>
       </c>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -23666,6 +24502,10 @@
       <c r="AJ193" t="n">
         <v>1</v>
       </c>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -23786,6 +24626,10 @@
       <c r="AJ194" t="n">
         <v>1</v>
       </c>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -23914,6 +24758,10 @@
       <c r="AJ195" t="n">
         <v>1</v>
       </c>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -24024,6 +24872,10 @@
       <c r="AJ196" t="n">
         <v>1</v>
       </c>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -24148,6 +25000,10 @@
       <c r="AJ197" t="n">
         <v>1</v>
       </c>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -24179,10 +25035,10 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monday – Friday: 12pm – 6pm&lt;0x0d&gt;
-Saturday: 1pm – 6pm&lt;0x0d&gt;
-Sunday: 2pm – 5pm&lt;0x0d&gt;
-*exhibitions only. </t>
+          <t>Monday – Friday: 12pm – 6pm
+Saturday: 1pm – 6pm
+Sunday: 2pm – 5pm
+*exhibitions only.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -24269,6 +25125,10 @@
       <c r="AJ198" t="n">
         <v>1</v>
       </c>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -24305,8 +25165,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t xml:space="preserve">A-B Projects is a space for the exhibition of work by artists who are expanding and redefining the field of ceramics. This non-commercial gallery allows artists to push their practices forward by taking personal risks and daring to exhibit seemingly infeasible work. The ancillary mission of A-B Projects is to use clay as a conduit to connect and support community.Nicole Seisler founded A-B Projects in 2015 in conjunction with her position as Lincoln Visiting Professor of Ceramics at Scripps College in Claremont, CA. In 2018, Nicole relocated the gallery to the Bendix Building in downtown Los Angeles.
- </t>
+          <t>A-B Projects is a space for the exhibition of work by artists who are expanding and redefining the field of ceramics. This non-commercial gallery allows artists to push their practices forward by taking personal risks and daring to exhibit seemingly infeasible work. The ancillary mission of A-B Projects is to use clay as a conduit to connect and support community.Nicole Seisler founded A-B Projects in 2015 in conjunction with her position as Lincoln Visiting Professor of Ceramics at Scripps College in Claremont, CA. In 2018, Nicole relocated the gallery to the Bendix Building in downtown Los Angeles.</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -24388,6 +25247,10 @@
       <c r="AJ199" t="n">
         <v>1</v>
       </c>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -24419,9 +25282,8 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Thursday- Friday: 16:00-20:00&lt;0x0d&gt;
-Saturday: 14:00-18:00&lt;0x0d&gt;
-&lt;0x0d&gt;
+          <t>Thursday- Friday: 16:00-20:00
+Saturday: 14:00-18:00
 or contact them to reserve an appointment</t>
         </is>
       </c>
@@ -24434,8 +25296,8 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Fruzsina Kigyós&lt;0x0d&gt;
-Róna Kopeczky&lt;0x0d&gt;
+          <t>Fruzsina Kigyós
+Róna Kopeczky
 Alexandra Nagy</t>
         </is>
       </c>
@@ -24519,6 +25381,10 @@
       <c r="AJ200" t="n">
         <v>1</v>
       </c>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -24637,6 +25503,10 @@
       <c r="AJ201" t="n">
         <v>1</v>
       </c>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -24757,6 +25627,10 @@
       <c r="AJ202" t="n">
         <v>1</v>
       </c>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -24875,6 +25749,10 @@
       <c r="AJ203" t="n">
         <v>1</v>
       </c>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -24991,6 +25869,10 @@
       <c r="AJ204" t="n">
         <v>1</v>
       </c>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -25025,7 +25907,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Since its creation, Rectangle has been interested in the use of images in both private and public areas. Dialogue with artists, artists, art schools, galleries and collectors, Rectangle wants to dynamize the collaborations on different territories.Retangle is a non-profit association where it is ensured by: Amandine Faugére, Pierre-Pol Lequuer and Xawarts (2012), Jerie Lecoturier and Xavier's interests.</t>
+          <t>Attention, structure fonctionnant sur projets itinérants depuis 2017 !! Depuis sa création, Rectangle s’intéresse à l’utilisation de l’image et de son dispositif dans des espaces à la fois privés ou publics. Dialoguant avec artistes, curateurs, artist-run spaces, écoles d’art, galeries et collectionneurs, Rectangle souhaite dynamiser les collaborations sur différents territoires.Rectangle est une association sans but lucratif dont la direction artistique est assurée par : Amandine Faugère, Aline Melaet, Pierre-Pol Lecouturier et Xavier Pauwels.Fondateurs: Cedric Alby (2012 – 2015), Jeremie Boyard (2012 – 2017), Pierre-Pol Lecouturier et Xavier Pauwels.[EN]Since its creation, Rectangle is interested by the image’s utilization and its device in both private and public spaces. Interacting with artists, curators, artist-run spaces, art schools, galleries and collectors, Rectangle wants to stimulate collaborations on different territories.The artistic direction is covered by :Amandine Faugère, Aline Melaet, Pierre-Pol Lecouturier and Xavier Pauwels.Fonders: Cedric Alby (2012 – 2015), Jeremie Boyard (2012 – 2017), Pierre-Pol Lecouturier and Xavier Pauwels.[NL]Sinds haar creatie is Rectangle geïnteresseerd in de toepassing van het beeld en de installatie van deze zowel in privé, als in publieke ruimtes. Door de interactie tussen kunstenaars, curatoren, kunstenaarsinitiatieven, galerieën en verzamelaars, wil Rectangle de samenwerkingen op verschillende gebieden stimuleren.De artistieke leiding wordt beheerd door :Amandine Faugère, Aline Melaet, Pierre-Pol Lecouturier, Xavier Pauwels.Oprichters: Cedric Alby (2012 – 2015), Jeremie Boyard (2012 – 2017), Pierre-Pol Lecouturier en Xavier Pauwels.</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -25109,6 +25991,10 @@
       <c r="AJ205" t="n">
         <v>1</v>
       </c>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -25225,6 +26111,10 @@
       <c r="AJ206" t="n">
         <v>1</v>
       </c>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -25349,6 +26239,10 @@
       <c r="AJ207" t="n">
         <v>1</v>
       </c>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -25465,6 +26359,10 @@
       <c r="AJ208" t="n">
         <v>1</v>
       </c>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -25581,6 +26479,10 @@
       <c r="AJ209" t="n">
         <v>1</v>
       </c>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -25691,6 +26593,10 @@
       <c r="AJ210" t="n">
         <v>1</v>
       </c>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -25805,6 +26711,10 @@
       <c r="AJ211" t="n">
         <v>1</v>
       </c>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -25833,7 +26743,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Núñez de Arce, 11</t>
+          <t>Núñez de Arce, 11</t>
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
@@ -25921,7 +26831,7 @@
       </c>
       <c r="AF212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Núñez de Arce, 11, 28012, Madrid, España</t>
+          <t>Núñez de Arce, 11, 28012, Madrid, España</t>
         </is>
       </c>
       <c r="AG212" t="n">
@@ -25932,6 +26842,10 @@
       <c r="AJ212" t="n">
         <v>1</v>
       </c>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -26050,6 +26964,10 @@
       <c r="AJ213" t="n">
         <v>1</v>
       </c>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -26166,6 +27084,10 @@
       <c r="AJ214" t="n">
         <v>1</v>
       </c>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -26286,6 +27208,10 @@
       <c r="AJ215" t="n">
         <v>1</v>
       </c>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -26413,6 +27339,10 @@
       <c r="AJ216" t="n">
         <v>1</v>
       </c>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -26529,6 +27459,10 @@
       <c r="AJ217" t="n">
         <v>1</v>
       </c>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -26643,6 +27577,10 @@
       <c r="AJ218" t="n">
         <v>1</v>
       </c>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -26763,6 +27701,10 @@
       <c r="AJ219" t="n">
         <v>1</v>
       </c>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -26875,6 +27817,10 @@
       <c r="AJ220" t="n">
         <v>1</v>
       </c>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -27001,6 +27947,10 @@
       <c r="AJ221" t="n">
         <v>1</v>
       </c>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -27111,6 +28061,10 @@
       <c r="AJ222" t="n">
         <v>1</v>
       </c>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -27142,7 +28096,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Ouvert du mercredi au samedi&lt;0x0d&gt;
+          <t>Ouvert du mercredi au samedi
 de 16h à 19h</t>
         </is>
       </c>
@@ -27232,6 +28186,10 @@
       <c r="AJ223" t="n">
         <v>1</v>
       </c>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -27344,6 +28302,10 @@
       <c r="AJ224" t="n">
         <v>1</v>
       </c>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -27459,6 +28421,10 @@
       <c r="AJ225" t="n">
         <v>1</v>
       </c>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -27579,6 +28545,10 @@
       <c r="AJ226" t="n">
         <v>1</v>
       </c>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -27697,6 +28667,10 @@
       <c r="AJ227" t="n">
         <v>1</v>
       </c>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -27813,6 +28787,10 @@
       <c r="AJ228" t="n">
         <v>1</v>
       </c>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -27937,6 +28915,10 @@
       <c r="AJ229" t="n">
         <v>1</v>
       </c>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -28049,6 +29031,10 @@
       <c r="AJ230" t="n">
         <v>1</v>
       </c>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -28161,6 +29147,10 @@
       <c r="AJ231" t="n">
         <v>1</v>
       </c>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -28285,6 +29275,10 @@
       <c r="AJ232" t="n">
         <v>1</v>
       </c>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -28401,6 +29395,10 @@
       <c r="AJ233" t="n">
         <v>1</v>
       </c>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -28430,7 +29428,7 @@
       <c r="I234" t="inlineStr">
         <is>
           <t>Independent art space, open to safeguard a work that has survived time, artist and intention. The sole of 100 interventions. Artistic intervention 42 of 13 Tribunei Street, Sibiu. Artă.nonstop was founded by George Roșu, together with the NGO Develop and uzinaduzina, with the intention to place this intervention in an artistic context, thus contributing to its safekeeping.
-„This was more of a therapeutic initiative. My intention in this project was to create small gestures with a strong personal significance, meant to last momentarily, that I could share with the others.” &lt;0x0d&gt;
+„This was more of a therapeutic initiative. My intention in this project was to create small gestures with a strong personal significance, meant to last momentarily, that I could share with the others.” 
 — Mircea Nicolae
 Mircea Nicolae ( born in 1980) passed away in July 2020. Artist, curator and art critic, he is considered one of the most subtle Romanian artists.
 September 2020 artă.nonstop was founded by George Roșu, together with the NGO Develop and uzinaduzina, with the intention to place this intervention in an artistic context, thus contributing to its safekeeping. The space is open to contemporary artists starting with the White Night of Art Galleries, October 2020.
@@ -28516,6 +29514,10 @@
       <c r="AJ234" t="n">
         <v>1</v>
       </c>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -28630,6 +29632,10 @@
       <c r="AJ235" t="n">
         <v>1</v>
       </c>
+      <c r="AK235" t="inlineStr"/>
+      <c r="AL235" t="inlineStr"/>
+      <c r="AM235" t="inlineStr"/>
+      <c r="AN235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -28742,6 +29748,10 @@
       <c r="AJ236" t="n">
         <v>1</v>
       </c>
+      <c r="AK236" t="inlineStr"/>
+      <c r="AL236" t="inlineStr"/>
+      <c r="AM236" t="inlineStr"/>
+      <c r="AN236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -28784,10 +29794,9 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ARTos Cultural and Research Foundation was founded by the artists Achilleas Kentonis and Maria Papacharalambous. It is a contemporary arts and science center dedicated to research and creativity: two magical worlds of adventure and discovery, encompassing sojourns into the fields of learning, chaos and imagination. Its premises, both transcendental and material, inspire the contemporary artist/creator and the scientist/creator alike, offering to both a platform, promoting them at a local as well as at an international level, with quality being the main criterion.The Foundation is housed in premises which once hosted the bakeries of Nicosia’s Agii Omologites parish, hence the inspiration for its name: “artos” or “bread”, the product of the bakeries, a staple dietary item for the people of Cyprus through the ages; at the same time, there’s “ARTos” (ARTs Operating System), which places us directly in the modern era of the apotheosis of Technology which, incidentally, we should never forget, etymologically means “the systematic treatment of an art”, and tha Art, according to Zenios, “…is the Bread (artos) which gladdens the soul”!
+          <t>The ARTos Cultural and Research Foundation was founded by the artists Achilleas Kentonis and Maria Papacharalambous. It is a contemporary arts and science center dedicated to research and creativity: two magical worlds of adventure and discovery, encompassing sojourns into the fields of learning, chaos and imagination. Its premises, both transcendental and material, inspire the contemporary artist/creator and the scientist/creator alike, offering to both a platform, promoting them at a local as well as at an international level, with quality being the main criterion.The Foundation is housed in premises which once hosted the bakeries of Nicosia’s Agii Omologites parish, hence the inspiration for its name: “artos” or “bread”, the product of the bakeries, a staple dietary item for the people of Cyprus through the ages; at the same time, there’s “ARTos” (ARTs Operating System), which places us directly in the modern era of the apotheosis of Technology which, incidentally, we should never forget, etymologically means “the systematic treatment of an art”, and tha Art, according to Zenios, “…is the Bread (artos) which gladdens the soul”!
 The very premises themselves constitute another unique experience to the visitor. The traditional architecture of the 1901 building converses with the industrial edifice of 1950 which once housed the bakeries, while at the same time we see incorporated into the entire complex a modern extension completed in 2003, thus creating an autonomous work of art marked by artful plasticity and rhythm. One could say that this is a space inspiring and challenging creativity, a situation, in any case, constituting that which is desired.
-Furthermore, during the refurbishment process and by opportune coincidence, we discovered and reconstructed a complex comprising nine unique ancient tombs dating back to the Hellenistic or, according to others, archaic period. In this way, the Foundation, with a solid foothold in the past, has, at the same time, its sights turned towards the future; it is inspired by ancient art and, through the use of modern technology, serves Cyprus’ timeless civilization, providing a platform for artistic and scientific creativity on a local and at the same time international level.
- </t>
+Furthermore, during the refurbishment process and by opportune coincidence, we discovered and reconstructed a complex comprising nine unique ancient tombs dating back to the Hellenistic or, according to others, archaic period. In this way, the Foundation, with a solid foothold in the past, has, at the same time, its sights turned towards the future; it is inspired by ancient art and, through the use of modern technology, serves Cyprus’ timeless civilization, providing a platform for artistic and scientific creativity on a local and at the same time international level.</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -28869,6 +29878,10 @@
       <c r="AJ237" t="n">
         <v>1</v>
       </c>
+      <c r="AK237" t="inlineStr"/>
+      <c r="AL237" t="inlineStr"/>
+      <c r="AM237" t="inlineStr"/>
+      <c r="AN237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -28985,6 +29998,10 @@
       <c r="AJ238" t="n">
         <v>1</v>
       </c>
+      <c r="AK238" t="inlineStr"/>
+      <c r="AL238" t="inlineStr"/>
+      <c r="AM238" t="inlineStr"/>
+      <c r="AN238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -29124,6 +30141,26 @@
       <c r="AI239" t="inlineStr"/>
       <c r="AJ239" t="n">
         <v>1</v>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>I was invited by Stéphane Despax to join Glassbox in 2010, probably in part because since my release from the Beaux-Arts I have been busy in duo with Emilie Schalck, an exhibition space in a very popular concert restaurant at Montpellier "the Baloard". Then in 2009, I organized a large demonstration at the ENSP (National School of Paysage) at the King's Potager at Versailles, with the LAAB Association of Art and Botaniques Association, which I had founded in 2007. The idea was to study and bring visibility on the art and botanical areas at Montpellier's "the Balloon". After 2009, I organized a large demonstration at the Royal School of Art School in Versailles, I organized a large demonstration at the King's Palace, with the Latage of Art and Botanique's Association. The idea was to attend to the 17th-year-terms. I was to the 17th-year-old-old-old-old-old-olds-olds.</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>In our exchanges with different actors like Séverine Marguin's research on the projects of Paris and Berlin or the Brazilian exhibition commissioner Fabiana de Moraes on the art-runs of Brazil (...) I was always on the tapes of the artist-run's work; it's like since this time and to this day I've been waiting for someone to write the story.</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -29240,6 +30277,10 @@
       <c r="AJ240" t="n">
         <v>1</v>
       </c>
+      <c r="AK240" t="inlineStr"/>
+      <c r="AL240" t="inlineStr"/>
+      <c r="AM240" t="inlineStr"/>
+      <c r="AN240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -29360,6 +30401,10 @@
       <c r="AJ241" t="n">
         <v>1</v>
       </c>
+      <c r="AK241" t="inlineStr"/>
+      <c r="AL241" t="inlineStr"/>
+      <c r="AM241" t="inlineStr"/>
+      <c r="AN241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -29470,6 +30515,10 @@
       <c r="AJ242" t="n">
         <v>1</v>
       </c>
+      <c r="AK242" t="inlineStr"/>
+      <c r="AL242" t="inlineStr"/>
+      <c r="AM242" t="inlineStr"/>
+      <c r="AN242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -29586,6 +30635,10 @@
       <c r="AJ243" t="n">
         <v>1</v>
       </c>
+      <c r="AK243" t="inlineStr"/>
+      <c r="AL243" t="inlineStr"/>
+      <c r="AM243" t="inlineStr"/>
+      <c r="AN243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -29706,6 +30759,26 @@
       <c r="AJ244" t="n">
         <v>1</v>
       </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>The structure I created is a workshop called the Red Cactus Art Studio (2 red carpets, Montpellier). I wanted to make it a place called "social art". From my point of view it answers questions of current society, i.e. preserving the independence of its own culture and its accessibility to its own heritage. One day per week the place is open to the public and participatory. The material is free of use to anyone in communication. I have materials for the practice of plastics and also musical instruments and books. There is no need for writing, paying or being able to sit on my own things. I have no need to be able to use them as part of my body to make them.</t>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>Q2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>My space can be seen as a work in the sense that it reflects a thought developed for progress (from society) and that it goes through an aesthetic research. However, it is constantly evolving so it may be an installation or performance rather than a final work. Hélène Battaini Red Cactus Art Studio, in Montpellier @redcatusartstudio</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -29824,6 +30897,10 @@
       <c r="AJ245" t="n">
         <v>1</v>
       </c>
+      <c r="AK245" t="inlineStr"/>
+      <c r="AL245" t="inlineStr"/>
+      <c r="AM245" t="inlineStr"/>
+      <c r="AN245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -29862,8 +30939,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tilde is a para-institution for contemporary art and research, presenting projects in several forms and places, both in its space in Amsterdam and collaborating with other spaces in The Netherlands and abroad. While organizing specific projects and off-site events, carefully unfolding experimental practices in close collaboration with artists, thinkers, writers, researchers, and the community, Tilde aims to create connections between local and international, young and older practitioners. Tilde promotes interdisciplinary dialogues and encourages involvement with other non–profit spaces, as well as institutional and educational systems nationally and internationally.It is run by artist and curator Diego Diez, who was previously co-directing the Amsterdam project space Plat- (2017-2019) and organizing group exhibitions such as Lockers (2017, 2019). After co-directing Plat- for two years I decided to work on my own and I founded Tilde as a some sort of next step of Plat-. Tilde aims to be able to reshape itself for the needs of the artists it works with, not being tied to a set of walls and lights, but with the possibility to offer to the artists what they might be looking for at that time of their careers.Since its start in October 2019 Tilde has created a line where works by stablished artists such as Francisco de Goya y Lucientes, Laure Prouvost or Moyra Davey are shown next to younger artists such as Vincent Verhoef, Maria Nolla Mateos or Sara Milio, a.o.. Another characteristic of the space is the intention to put in context the work of artists working in Amsterdam with international artist, allowing both parts to discover different contexts within a similar approach to art making. Mostly presenting duo or small group shows the aim of the project is to offer a space for conversation between different generations and points of departure, with a public presentation understood as an exhibition but with an important part behind the scenes, where the artists discuss and share their knowledge and methodologies. Relationships make up an important part of the shows at Tilde, especially as it is based in my apartment: the artists usually stay there for a week for set up. This means the conversations about the show happen more informally, like when cooking breakfast. While theoretically grounded, my approach to curating is based more on direct relationships with artists, proximity, friendship and the processual development of exhibitions, rather than working on a thematic base.
- </t>
+          <t>Tilde is a para-institution for contemporary art and research, presenting projects in several forms and places, both in its space in Amsterdam and collaborating with other spaces in The Netherlands and abroad. While organizing specific projects and off-site events, carefully unfolding experimental practices in close collaboration with artists, thinkers, writers, researchers, and the community, Tilde aims to create connections between local and international, young and older practitioners. Tilde promotes interdisciplinary dialogues and encourages involvement with other non–profit spaces, as well as institutional and educational systems nationally and internationally.It is run by artist and curator Diego Diez, who was previously co-directing the Amsterdam project space Plat- (2017-2019) and organizing group exhibitions such as Lockers (2017, 2019). After co-directing Plat- for two years I decided to work on my own and I founded Tilde as a some sort of next step of Plat-. Tilde aims to be able to reshape itself for the needs of the artists it works with, not being tied to a set of walls and lights, but with the possibility to offer to the artists what they might be looking for at that time of their careers.Since its start in October 2019 Tilde has created a line where works by stablished artists such as Francisco de Goya y Lucientes, Laure Prouvost or Moyra Davey are shown next to younger artists such as Vincent Verhoef, Maria Nolla Mateos or Sara Milio, a.o.. Another characteristic of the space is the intention to put in context the work of artists working in Amsterdam with international artist, allowing both parts to discover different contexts within a similar approach to art making. Mostly presenting duo or small group shows the aim of the project is to offer a space for conversation between different generations and points of departure, with a public presentation understood as an exhibition but with an important part behind the scenes, where the artists discuss and share their knowledge and methodologies. Relationships make up an important part of the shows at Tilde, especially as it is based in my apartment: the artists usually stay there for a week for set up. This means the conversations about the show happen more informally, like when cooking breakfast. While theoretically grounded, my approach to curating is based more on direct relationships with artists, proximity, friendship and the processual development of exhibitions, rather than working on a thematic base.</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -29945,6 +31021,10 @@
       <c r="AJ246" t="n">
         <v>1</v>
       </c>
+      <c r="AK246" t="inlineStr"/>
+      <c r="AL246" t="inlineStr"/>
+      <c r="AM246" t="inlineStr"/>
+      <c r="AN246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -29975,11 +31055,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Espai Colona is a project and a work space dedicated to contemporary art, located in the city of Castro, on the large island of Chiloé. The interests of Espai Colona focus on symbiotics relationships that take place between territory and people, understanding it from two angles: the contemplative relationship linked to landscape and the idea of territory with an origin in the visual arts and the alliance between territory and the means of subsistence for those who inhabit it.
-Within this socio-geographical relationship, Espai Colona has always considered work and experimentation to be carried out through affection and hospitality, issues that are combined in the fact of living and inhabiting an specific place in which research is carried out and then the respective exhibitions of the processes and results (understanding the term exhibition in an expanded manner)
---
-Espai Colona es un proyecto y espacio dedicado al arte y pensamiento contemporáneo ubicado en la ciudad de Castro, en la isla grande de Chiloé. Los intereses de Espai Colona se centran en la relación simbiótica que se produce entre el territorio y las personas, entendiéndolo desde dos aristas: la relación contemplativa vinculada al paisaje y a la idea de territorio con un origen en las artes visuales y el territorio utilizado como un medio de subsistencia por quienes lo habitan.
-Dentro de esta relación socio/geográfica, Espai Colona ha considerado siempre que el trabajo debe darse desde los afectos y la hospitalidad, asuntos que se conjugan en el hecho de habitar y vivir el espacio en el que se desarrollan las investigaciones y luego se producen las respectivas exhibiciones de los procesos y resultados. (entendiendo el término exhibición de manera expandida.)</t>
+          <t>Spai Colona is a project and a work space dedicated to contemporary art, located in the city of Castro, on the large island of Chiloé. The interests of Spain focus on symbiotic relations that take place between territory and people, understanding it from two English: the conceptual relationship linked to landscape and the idea of territory with an origin in the visual arts and the alliance between the territory and the meanings of existence for those incapacitated it. With this socio-geographical relationship, Spain has always considered work and experimentation to be carried out through love and hospitality, issues that are combined in the fact of living and in Aborigines a specific place in respect to the</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -30061,6 +31137,10 @@
       <c r="AJ247" t="n">
         <v>1</v>
       </c>
+      <c r="AK247" t="inlineStr"/>
+      <c r="AL247" t="inlineStr"/>
+      <c r="AM247" t="inlineStr"/>
+      <c r="AN247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -30087,7 +31167,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 Popa Șapcă St. </t>
+          <t>5 Popa Șapcă St.</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -30171,6 +31251,10 @@
       <c r="AJ248" t="n">
         <v>1</v>
       </c>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr"/>
+      <c r="AN248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -30291,6 +31375,10 @@
       <c r="AJ249" t="n">
         <v>1</v>
       </c>
+      <c r="AK249" t="inlineStr"/>
+      <c r="AL249" t="inlineStr"/>
+      <c r="AM249" t="inlineStr"/>
+      <c r="AN249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -30415,6 +31503,10 @@
       <c r="AJ250" t="n">
         <v>1</v>
       </c>
+      <c r="AK250" t="inlineStr"/>
+      <c r="AL250" t="inlineStr"/>
+      <c r="AM250" t="inlineStr"/>
+      <c r="AN250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -30535,6 +31627,10 @@
       <c r="AJ251" t="n">
         <v>1</v>
       </c>
+      <c r="AK251" t="inlineStr"/>
+      <c r="AL251" t="inlineStr"/>
+      <c r="AM251" t="inlineStr"/>
+      <c r="AN251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -30663,6 +31759,10 @@
       <c r="AJ252" t="n">
         <v>1</v>
       </c>
+      <c r="AK252" t="inlineStr"/>
+      <c r="AL252" t="inlineStr"/>
+      <c r="AM252" t="inlineStr"/>
+      <c r="AN252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -30781,6 +31881,10 @@
       <c r="AJ253" t="n">
         <v>1</v>
       </c>
+      <c r="AK253" t="inlineStr"/>
+      <c r="AL253" t="inlineStr"/>
+      <c r="AM253" t="inlineStr"/>
+      <c r="AN253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -30889,6 +31993,10 @@
       <c r="AJ254" t="n">
         <v>8</v>
       </c>
+      <c r="AK254" t="inlineStr"/>
+      <c r="AL254" t="inlineStr"/>
+      <c r="AM254" t="inlineStr"/>
+      <c r="AN254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -30930,7 +32038,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>&lt;0x0d&gt;
+          <t xml:space="preserve">
 Lucile Diacono, Colin G., Margaux Fontaine, Steven Le Priol, Audrey Martin, Lydia Rump et Margaux Szymkowicz.</t>
         </is>
       </c>
@@ -31010,6 +32118,26 @@
       <c r="AJ255" t="n">
         <v>1</v>
       </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>Since the beginning of Pamela's creation, we are aware of the fact that the collective term, often attributed to this type of project, is not used to our subject to prefer the cooperative. This term seems to be more appropriate to define what we like, namely the combination of material and material resources in a project for its members and artists with which we choose to work on the principle of the art-run space as a place of thought and by artists. It seems important to us in a middle of the art that remains very vertical in its functions to create a place that we like. This term appears to be more appropriate to define what we like, namely, that is the common set of material and material resources in a project for its members. This is the setting up of a common set of material and material resources for its members. This is the setting of the structure of its members and its artists with which we choose to work. It is the structure of the structure of the structure of the structure of the structure of the structure of the structure of the structure of the structure of the structure.</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>We do not think that Pamela is a work to be spoken by itself but may be considered to be a work under the conditions and contexts where she operates her actions. As mentioned above, Pamela does not think of herself as a collective but as a tool for the service of artists who create it outside of any plastic community. Pamela is a variable geometry tool whose uses are re-invented according to the proposals of the artists who invest it. If Pamela does not think of it as a work as a priority, it is possible that in the future a first period of activity could work at this moment, at the same time, at the same time, at the same time, and at the same time perform the work of the artist.</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -31051,12 +32179,9 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Antoine Barberon, Cécile Bouffard, Willie Brisco, Christel Conchon, Florent Dégé, Adrien Genty, Romain Grateau, Sarah Holveck et Baptiste Perrin&lt;0x0d&gt;
-&lt;0x0d&gt;
-Claire de Pimodan&lt;0x0d&gt;
-&lt;0x0d&gt;
-Mathilde Rives&lt;0x0d&gt;
-&lt;0x0d&gt;
+          <t>Antoine Barberon, Cécile Bouffard, Willie Brisco, Christel Conchon, Florent Dégé, Adrien Genty, Romain Grateau, Sarah Holveck et Baptiste Perrin
+Claire de Pimodan
+Mathilde Rives
 Josselin Vidalenc</t>
         </is>
       </c>
@@ -31140,6 +32265,10 @@
       <c r="AJ256" t="n">
         <v>1</v>
       </c>
+      <c r="AK256" t="inlineStr"/>
+      <c r="AL256" t="inlineStr"/>
+      <c r="AM256" t="inlineStr"/>
+      <c r="AN256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -31266,6 +32395,10 @@
       <c r="AJ257" t="n">
         <v>1</v>
       </c>
+      <c r="AK257" t="inlineStr"/>
+      <c r="AL257" t="inlineStr"/>
+      <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -31386,6 +32519,10 @@
       <c r="AJ258" t="n">
         <v>1</v>
       </c>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -31506,6 +32643,10 @@
       <c r="AJ259" t="n">
         <v>1</v>
       </c>
+      <c r="AK259" t="inlineStr"/>
+      <c r="AL259" t="inlineStr"/>
+      <c r="AM259" t="inlineStr"/>
+      <c r="AN259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -31630,6 +32771,10 @@
       <c r="AJ260" t="n">
         <v>1</v>
       </c>
+      <c r="AK260" t="inlineStr"/>
+      <c r="AL260" t="inlineStr"/>
+      <c r="AM260" t="inlineStr"/>
+      <c r="AN260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -31656,7 +32801,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RR. SHTJEFËN GJEÇOVI, NR.15,</t>
+          <t>RR. SHTJEFËN GJEÇOVI, NR.15,</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
@@ -31667,10 +32812,10 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADRIAN PACI&lt;0x0d&gt;
-MELISA PACI&lt;0x0d&gt;
-TEA ÇUNI&lt;0x0d&gt;
-ARTA NIKOLLI&lt;0x0d&gt;
+          <t xml:space="preserve">ADRIAN PACI
+MELISA PACI
+TEA ÇUNI
+ARTA NIKOLLI
 </t>
         </is>
       </c>
@@ -31739,7 +32884,7 @@
       </c>
       <c r="AF261" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RR. SHTJEFËN GJEÇOVI, NR.15,, , ShkodËr, Albanie</t>
+          <t>RR. SHTJEFËN GJEÇOVI, NR.15,, , ShkodËr, Albanie</t>
         </is>
       </c>
       <c r="AG261" t="inlineStr"/>
@@ -31752,6 +32897,10 @@
       <c r="AJ261" t="n">
         <v>1</v>
       </c>
+      <c r="AK261" t="inlineStr"/>
+      <c r="AL261" t="inlineStr"/>
+      <c r="AM261" t="inlineStr"/>
+      <c r="AN261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -31780,7 +32929,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pratt Institute, 200 Willoughby Avenue </t>
+          <t>Pratt Institute, 200 Willoughby Avenue</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
@@ -31797,8 +32946,8 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Founding Director&lt;0x0d&gt;
-Martha Wilson, Senior Archivist Michael Katchen, Deputy Director Harley Spiller, Program Coordinator&lt;0x0d&gt;
+          <t>Founding Director
+Martha Wilson, Senior Archivist Michael Katchen, Deputy Director Harley Spiller, Program Coordinator
 Jenny Korns</t>
         </is>
       </c>
@@ -31878,6 +33027,10 @@
       <c r="AJ262" t="n">
         <v>1</v>
       </c>
+      <c r="AK262" t="inlineStr"/>
+      <c r="AL262" t="inlineStr"/>
+      <c r="AM262" t="inlineStr"/>
+      <c r="AN262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -32011,6 +33164,10 @@
       <c r="AJ263" t="n">
         <v>1</v>
       </c>
+      <c r="AK263" t="inlineStr"/>
+      <c r="AL263" t="inlineStr"/>
+      <c r="AM263" t="inlineStr"/>
+      <c r="AN263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -32127,6 +33284,10 @@
       <c r="AJ264" t="n">
         <v>1</v>
       </c>
+      <c r="AK264" t="inlineStr"/>
+      <c r="AL264" t="inlineStr"/>
+      <c r="AM264" t="inlineStr"/>
+      <c r="AN264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -32134,7 +33295,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -32163,8 +33324,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>The Project Space is located in the middle of the former welding workshop in the building on Dok-Noord. Since 2013 it is used for exhibitions, lectures, performances, screenings, try-outs, workshops, and (until 2018) concerts.The layout and appearance of the project space are constantly evolving. Architectural interventions regularly change the access, walking and sight lines and create a context that challenges the various users of the space to interact.The project space is a platform for 019 but also for many others. Organizations, students and schools regularly organize their own activities, from end-of-year juries to private events.
-NLIn het midden van de voormalige laswerkplaats in het gebouw op Dok-Noord, bevindt zich de projectruimte van 019. Deze wordt sinds 2013 ingezet voor tentoonstellingen, lezingen, performances, screenings, try-outs, workshops, en (tot 2018) concerten.De indeling en het uitzicht van de projectruimte zijn permanent in evolutie. Architecturale ingrepen veranderen regelmatig de toegang, loop- en zichtlijnen en creëren een context die de diverse gebruikers van de ruimte uitdaagt om in interactie te gaan.De projectruimte is een platform voor 019 maar ook voor vele anderen. Organisaties, studenten en scholen organiseren regelmatig eigen activiteiten, van eindejaarsjury’s tot private evenementen.</t>
+          <t>Since 2013 it is used for exhibitions, lectures, workshops, and (unt 2018) concerts.The layout and appearance of the project space are constantly evolving. Architectural interventions are regularly changing the access, walking and sightings a context that calls the different users of the space to interact.The organization is also a platform for many others. Organizations, students and schools regularly organize their activities, from end-of-year to private events.</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -32174,8 +33334,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t xml:space="preserve">019 was never going to remain the only place we worked in. From the start, it’s been a laboratory that swings us into unknown directions, constantly sharpening our sense of improvisation and reinvention on the spot. For three years, from 2013 onwards, we made that old welding factory at Dok Noord in Ghent (Belgium) the focal point of our activities. People even started to identify the entirety of our collective, Smoke &amp; Dust, with what was basically only the name of its nineteenth project. We became 019. The whole project turned us upside down. But in doing so, we became aware as well. We understood that the act of occupying and taking possession of the site was not the goal of our work at all. From the inside out, starting with a wooden construction in its interior and up to the billboard at an outside wall and a series of flagpoles on the roof, we gradually developed the place into an assembly of undergrounds for public and artistic encounter, an emerging space for collaboration that was grounded on the premise that all media at our disposal were common grounds to be rediscovered. That is when the work began. That is when things began to move, for real. That is when we realized—artists, architects, designers and the like—we had all turned into scenographers, regardless of our discipline: co-authors of a scene that was constructed out of margins and constraints, participants in a game of give and take that we endlessly play around a display we like to recycle. In the end, that’s how 019, our handling of its space through appropriation and dispossession, became the site of a moving practice, a collaborative way of working ready to be moved, reproduced and reinvented elsewhere. (Tom Van Imschoot, 2016)
- </t>
+          <t>019 was never going to remain the only place we worked in. From the start, it’s been a laboratory that swings us into unknown directions, constantly sharpening our sense of improvisation and reinvention on the spot. For three years, from 2013 onwards, we made that old welding factory at Dok Noord in Ghent (Belgium) the focal point of our activities. People even started to identify the entirety of our collective, Smoke &amp; Dust, with what was basically only the name of its nineteenth project. We became 019. The whole project turned us upside down. But in doing so, we became aware as well. We understood that the act of occupying and taking possession of the site was not the goal of our work at all. From the inside out, starting with a wooden construction in its interior and up to the billboard at an outside wall and a series of flagpoles on the roof, we gradually developed the place into an assembly of undergrounds for public and artistic encounter, an emerging space for collaboration that was grounded on the premise that all media at our disposal were common grounds to be rediscovered. That is when the work began. That is when things began to move, for real. That is when we realized—artists, architects, designers and the like—we had all turned into scenographers, regardless of our discipline: co-authors of a scene that was constructed out of margins and constraints, participants in a game of give and take that we endlessly play around a display we like to recycle. In the end, that’s how 019, our handling of its space through appropriation and dispossession, became the site of a moving practice, a collaborative way of working ready to be moved, reproduced and reinvented elsewhere. (Tom Van Imschoot, 2016)</t>
         </is>
       </c>
       <c r="L265" t="inlineStr"/>
@@ -32221,7 +33380,7 @@
       </c>
       <c r="AA265" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AB265" t="inlineStr">
@@ -32253,6 +33412,10 @@
       <c r="AJ265" t="n">
         <v>1</v>
       </c>
+      <c r="AK265" t="inlineStr"/>
+      <c r="AL265" t="inlineStr"/>
+      <c r="AM265" t="inlineStr"/>
+      <c r="AN265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -32367,6 +33530,10 @@
       <c r="AJ266" t="n">
         <v>1</v>
       </c>
+      <c r="AK266" t="inlineStr"/>
+      <c r="AL266" t="inlineStr"/>
+      <c r="AM266" t="inlineStr"/>
+      <c r="AN266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -32399,11 +33566,10 @@
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extrait du très bon article de Natilee HarrenLa cédille qui ne finit pas: Robert Filliou, George Brecht, and Fluxus in Villefranche (deregulation version)
+          <t>Extrait du très bon article de Natilee HarrenLa cédille qui ne finit pas: Robert Filliou, George Brecht, and Fluxus in Villefranche (deregulation version)
 Intégralité : http://www.artandeducation.net/paper/la-cedille-qui-ne-finit-pas-robert-filliou-george-brecht-and-fluxus-in-villefranche/
 In the summer of 1965, George Brecht and Robert Filliou, with the support of their partners Donna and Marianne, opened a shop at 12 rue de May in Villefranche-sur-Mer, a seaside village just east of Nice, France. The space, 36 meters square, with a canary yellow awning and chalkboard sign in the window, was called La Cédille Qui Sourit, or “The Cedilla That Smiles.” Conceived first as an English bookshop “under the sign of humor,” it was actually, as Filliou has recounted, “a sort of workshop and of shop, of nonshop would we say now, for we were never commercially registered, and the Cédille was always shut, opening only upon request of visitors to our homes.”
-The artists, both associated with the international, neo-avant-garde Fluxus collective, called their shop a “Center of Permanent Creation,” for they were continually producing research, letters, jokes, puzzles, games, recipes, poems, drawings, and events. Yet there were few unannounced visitors to the Cédille, or at least ones who were successful in visiting, since the shop did not have a telephone and Brecht and Filliou seemed not to spend much time there. The artists presided more often at one of the nearby cafés, devising more of the visual gags they called “One Minute Scenarios,” “dis-inventing” objects, adding to their “Anthology of Misunderstandings,” or talking with their friends Alfred the bricklayer, Antoine the fisherman, Fernand the plumber, or anyone else who happened to drop by.
- </t>
+The artists, both associated with the international, neo-avant-garde Fluxus collective, called their shop a “Center of Permanent Creation,” for they were continually producing research, letters, jokes, puzzles, games, recipes, poems, drawings, and events. Yet there were few unannounced visitors to the Cédille, or at least ones who were successful in visiting, since the shop did not have a telephone and Brecht and Filliou seemed not to spend much time there. The artists presided more often at one of the nearby cafés, devising more of the visual gags they called “One Minute Scenarios,” “dis-inventing” objects, adding to their “Anthology of Misunderstandings,” or talking with their friends Alfred the bricklayer, Antoine the fisherman, Fernand the plumber, or anyone else who happened to drop by.</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -32487,6 +33653,10 @@
       <c r="AJ267" t="n">
         <v>1</v>
       </c>
+      <c r="AK267" t="inlineStr"/>
+      <c r="AL267" t="inlineStr"/>
+      <c r="AM267" t="inlineStr"/>
+      <c r="AN267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -32617,6 +33787,10 @@
       <c r="AJ268" t="n">
         <v>1</v>
       </c>
+      <c r="AK268" t="inlineStr"/>
+      <c r="AL268" t="inlineStr"/>
+      <c r="AM268" t="inlineStr"/>
+      <c r="AN268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -32745,6 +33919,10 @@
       <c r="AJ269" t="n">
         <v>1</v>
       </c>
+      <c r="AK269" t="inlineStr"/>
+      <c r="AL269" t="inlineStr"/>
+      <c r="AM269" t="inlineStr"/>
+      <c r="AN269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -32867,6 +34045,10 @@
       <c r="AJ270" t="n">
         <v>1</v>
       </c>
+      <c r="AK270" t="inlineStr"/>
+      <c r="AL270" t="inlineStr"/>
+      <c r="AM270" t="inlineStr"/>
+      <c r="AN270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -32910,12 +34092,12 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Studio Voltaire was initiated in 1994 by a collective of twelve artists who set up a studio space in a disused tram shed on Voltaire Road, Clapham. In1999 the organisation moved to its current location on Nelson’s Row, close to Clapham High Street and grew to become a registered charity in 2001. The move to a larger site enabled us to expand our provision of affordable studios and offer a dedicated gallery space in a Victorian former chapel, adjacent to the studios, both of which remain unique resources for the local area.
+          <t>Studio Voltaire was initiated in 1994 by a collective of twelve artists who set up a studio space in a disused tram shed on Voltaire Road, Clapham. In1999 the organisation moved to its current location on Nelson’s Row, close to Clapham High Street and grew to become a registered charity in 2001. The move to a larger site enabled us to expand our provision of affordable studios and offer a dedicated gallery space in a Victorian former chapel, adjacent to the studios, both of which remain unique resources for the local area.
 Our studios currently house over 45 London based artists, ranging from internationally recognised practitioners to recent graduates and includes two groups supporting artists with learning difficulties – Actionspace and Intoart. In recent years, the studios have also hosted a number of residencies for national and international artists; partners have included Berlin Senate, Collective Gallery, British Council, Outset and Royal College of Art.
 Through an ambitious public programme of exhibitions, commissions, live events and offsite projects we play a key role in supporting emerging practices and ideas, often giving artists their first solo exhibition in London. We like to invest in the production of work by commissioning new projects that may not always be possible within institutional or commercial frameworks. Our programme is intergenerational, supporting emerging and underrepresented practices and allowing artists to develop new work on their own terms. This unique way of working allows us to develop long-term relationships with artists, often working together on multiple occasions.
 Studio Voltaire’s gallery space is characterised by a dramatic vaulted ceiling and is flooded with natural light, providing a dynamic space to work in that is very unusual in London. Previous exhibited artists include Nairy Baghramian, Phyllida Barlow, Simon Bedwell, Juliette Blightman, Nicholas Byrne, Spartacus Chetwynd, Chris Evans, Thea Djordjadze, Liam Gillick, Anthea Hamilton, Emma Hedditch, Intoart, Goshka Macuga, Dawn Mellor, Henrik Olesen, Elizabeth Price, Jo Spence, Joanne Tatham &amp; Tom O’Sullivan, Donald Urquhart, Lawrence Weiner and Cathy Wilkes.
 We are committed to widening participation from individuals and groups who may not typically access contemporary art. Since 2002 Studio Voltaire has been running wide reaching education projects and in 2011 we initiated Not Our Class,a unique programme of participation and research based within a community and contemporary art context.
-2014 marked 20 years of Studio Voltaire supporting artists. In this time we have grown from a local artist collective to receive regular funding from Arts Council England as a sign of best practice.  We continue to generate the majority of our core income independently via studio rents, commercial hires and trading. Our strengths and ambitions have grown over the years and we are proud of our unique way of working, which remains close to the creative process at a grassroots level and places great emphasis on risk-taking. By placing the artist at the centre of everything we do we aim to continue to develop our programmes to engage with wider audiences into the future. </t>
+2014 marked 20 years of Studio Voltaire supporting artists. In this time we have grown from a local artist collective to receive regular funding from Arts Council England as a sign of best practice.  We continue to generate the majority of our core income independently via studio rents, commercial hires and trading. Our strengths and ambitions have grown over the years and we are proud of our unique way of working, which remains close to the creative process at a grassroots level and places great emphasis on risk-taking. By placing the artist at the centre of everything we do we aim to continue to develop our programmes to engage with wider audiences into the future.</t>
         </is>
       </c>
       <c r="L271" t="inlineStr"/>
@@ -32991,6 +34173,10 @@
       <c r="AJ271" t="n">
         <v>1</v>
       </c>
+      <c r="AK271" t="inlineStr"/>
+      <c r="AL271" t="inlineStr"/>
+      <c r="AM271" t="inlineStr"/>
+      <c r="AN271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -33022,8 +34208,8 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Mardi au Samedi : 10h-20h&lt;0x0d&gt;
-Dimanche : 10h-19h&lt;0x0d&gt;
+          <t>Mardi au Samedi : 10h-20h
+Dimanche : 10h-19h
 Fermé le Lundi.</t>
         </is>
       </c>
@@ -33117,6 +34303,10 @@
       <c r="AJ272" t="n">
         <v>1</v>
       </c>
+      <c r="AK272" t="inlineStr"/>
+      <c r="AL272" t="inlineStr"/>
+      <c r="AM272" t="inlineStr"/>
+      <c r="AN272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -33235,6 +34425,10 @@
       <c r="AJ273" t="n">
         <v>1</v>
       </c>
+      <c r="AK273" t="inlineStr"/>
+      <c r="AL273" t="inlineStr"/>
+      <c r="AM273" t="inlineStr"/>
+      <c r="AN273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -33345,6 +34539,10 @@
       <c r="AJ274" t="n">
         <v>1</v>
       </c>
+      <c r="AK274" t="inlineStr"/>
+      <c r="AL274" t="inlineStr"/>
+      <c r="AM274" t="inlineStr"/>
+      <c r="AN274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -33467,6 +34665,10 @@
       <c r="AJ275" t="n">
         <v>1</v>
       </c>
+      <c r="AK275" t="inlineStr"/>
+      <c r="AL275" t="inlineStr"/>
+      <c r="AM275" t="inlineStr"/>
+      <c r="AN275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -33591,6 +34793,10 @@
       <c r="AJ276" t="n">
         <v>1</v>
       </c>
+      <c r="AK276" t="inlineStr"/>
+      <c r="AL276" t="inlineStr"/>
+      <c r="AM276" t="inlineStr"/>
+      <c r="AN276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -33624,19 +34830,18 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Tuesday to Sunday&lt;0x0d&gt;
-October – March, 10am—4pm&lt;0x0d&gt;
-April – September, 10am—5pm&lt;0x0d&gt;
-August only:&lt;0x0d&gt;
+          <t>Tuesday to Sunday
+October – March, 10am—4pm
+April – September, 10am—5pm
+August only:
 Monday to Sunday, 10am—6pm</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collective was established in 1984 as an artist-run space, to support new and emergent artists to exhibit their work in Edinburgh and has been fundamental to the cultural vitality of Scotland. Now Collective commissions new work by artists who are at a pivotal stage in their development.Since 2019, Collective is a free contemporary art centre that brings creative new perspectives to the city of Edinburgh.
+          <t>Collective was established in 1984 as an artist-run space, to support new and emergent artists to exhibit their work in Edinburgh and has been fundamental to the cultural vitality of Scotland. Now Collective commissions new work by artists who are at a pivotal stage in their development.Since 2019, Collective is a free contemporary art centre that brings creative new perspectives to the city of Edinburgh.
 Situated in a heritage observatory, Collective develops and presents world-class exhibitions, events, workshops and discussions from ground-breaking local and international artists. We run artist-led activities for young people, as well as the sector-leading development programme for emerging creative practitioners, Satellites.
-To find out more about the programme, please browse the archive. To find out more about the home on Calton Hill, read the site history.
- </t>
+To find out more about the programme, please browse the archive. To find out more about the home on Calton Hill, read the site history.</t>
         </is>
       </c>
       <c r="J277" t="inlineStr"/>
@@ -33722,6 +34927,10 @@
       <c r="AJ277" t="n">
         <v>1</v>
       </c>
+      <c r="AK277" t="inlineStr"/>
+      <c r="AL277" t="inlineStr"/>
+      <c r="AM277" t="inlineStr"/>
+      <c r="AN277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -33748,7 +34957,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kloosterlaan 138 </t>
+          <t>Kloosterlaan 138</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -33844,6 +35053,10 @@
       <c r="AJ278" t="n">
         <v>1</v>
       </c>
+      <c r="AK278" t="inlineStr"/>
+      <c r="AL278" t="inlineStr"/>
+      <c r="AM278" t="inlineStr"/>
+      <c r="AN278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -33964,6 +35177,10 @@
       <c r="AJ279" t="n">
         <v>1</v>
       </c>
+      <c r="AK279" t="inlineStr"/>
+      <c r="AL279" t="inlineStr"/>
+      <c r="AM279" t="inlineStr"/>
+      <c r="AN279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -33990,7 +35207,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SSamzie Space, sponsored and operated by SSamzie Co. Ltd. (president Chun Ho-kyun), opened in June 2000 as a composite-culture space to promote cutting-edge art in Korea. It is located in the area of Hong-ik University, which is the hotbed of art production and consumption in Seoul and also the main gathering spot for artists. SSamzie Space, which has become an incubator for new generation art, is linked to and is an extension of the SSamzie Art Project launched in March 1998. SSamzie Space's three galleries, namely, the Main Gallery (3F), Project Gallery (2F), and Garage Gallery(1F) and the Media Theater "Baram"(2F) together make up the activity space presenting on a regular basis various exhibitions, performances, concerts and events. The art studios located on the 4th to 6th floors are the creative spaces of the young artists. The 5th floor, the main office as well as an archive, is provided with art books, journals, catalogues, videos, and artist portfolios. </t>
+          <t>SSamzie Space, sponsored and operated by SSamzie Co. Ltd. (president Chun Ho-kyun), opened in June 2000 as a composite-culture space to promote cutting-edge art in Korea. It is located in the area of Hong-ik University, which is the hotbed of art production and consumption in Seoul and also the main gathering spot for artists. SSamzie Space, which has become an incubator for new generation art, is linked to and is an extension of the SSamzie Art Project launched in March 1998. SSamzie Space's three galleries, namely, the Main Gallery (3F), Project Gallery (2F), and Garage Gallery(1F) and the Media Theater "Baram"(2F) together make up the activity space presenting on a regular basis various exhibitions, performances, concerts and events. The art studios located on the 4th to 6th floors are the creative spaces of the young artists. The 5th floor, the main office as well as an archive, is provided with art books, journals, catalogues, videos, and artist portfolios.</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -34077,6 +35294,10 @@
       <c r="AJ280" t="n">
         <v>1</v>
       </c>
+      <c r="AK280" t="inlineStr"/>
+      <c r="AL280" t="inlineStr"/>
+      <c r="AM280" t="inlineStr"/>
+      <c r="AN280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -34199,6 +35420,10 @@
       <c r="AJ281" t="n">
         <v>1</v>
       </c>
+      <c r="AK281" t="inlineStr"/>
+      <c r="AL281" t="inlineStr"/>
+      <c r="AM281" t="inlineStr"/>
+      <c r="AN281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -34317,6 +35542,10 @@
       <c r="AJ282" t="n">
         <v>1</v>
       </c>
+      <c r="AK282" t="inlineStr"/>
+      <c r="AL282" t="inlineStr"/>
+      <c r="AM282" t="inlineStr"/>
+      <c r="AN282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -34439,6 +35668,10 @@
       <c r="AJ283" t="n">
         <v>1</v>
       </c>
+      <c r="AK283" t="inlineStr"/>
+      <c r="AL283" t="inlineStr"/>
+      <c r="AM283" t="inlineStr"/>
+      <c r="AN283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -34472,13 +35705,13 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>opening hours: friday 3 - 8 pm&lt;0x0d&gt;
+          <t>opening hours: friday 3 - 8 pm
 or by appointment</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t xml:space="preserve">flip is a platform to expand on various interests in relation to current culture and artistic practice. the projects are the result of our international network and multidisciplinary collaborations. Continuous shifts in context invite inputs and spontaneous occurrences that contribute to the multi-layed and transnational discourse that characterizes flip.The locationThe last floor of the 1690 palazzo ruffo di castelcicala in the centre of napoli, forms the base location for flip.flip is a vision and a project in itself, not specific to a site, but rather an evolving network of activities and locales. </t>
+          <t>flip is a platform to expand on various interests in relation to current culture and artistic practice. the projects are the result of our international network and multidisciplinary collaborations. Continuous shifts in context invite inputs and spontaneous occurrences that contribute to the multi-layed and transnational discourse that characterizes flip.The locationThe last floor of the 1690 palazzo ruffo di castelcicala in the centre of napoli, forms the base location for flip.flip is a vision and a project in itself, not specific to a site, but rather an evolving network of activities and locales.</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -34564,6 +35797,10 @@
       <c r="AJ284" t="n">
         <v>1</v>
       </c>
+      <c r="AK284" t="inlineStr"/>
+      <c r="AL284" t="inlineStr"/>
+      <c r="AM284" t="inlineStr"/>
+      <c r="AN284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -34686,6 +35923,10 @@
       <c r="AJ285" t="n">
         <v>1</v>
       </c>
+      <c r="AK285" t="inlineStr"/>
+      <c r="AL285" t="inlineStr"/>
+      <c r="AM285" t="inlineStr"/>
+      <c r="AN285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -34806,6 +36047,10 @@
       <c r="AJ286" t="n">
         <v>9</v>
       </c>
+      <c r="AK286" t="inlineStr"/>
+      <c r="AL286" t="inlineStr"/>
+      <c r="AM286" t="inlineStr"/>
+      <c r="AN286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -34924,6 +36169,10 @@
       <c r="AJ287" t="n">
         <v>1</v>
       </c>
+      <c r="AK287" t="inlineStr"/>
+      <c r="AL287" t="inlineStr"/>
+      <c r="AM287" t="inlineStr"/>
+      <c r="AN287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -34946,7 +36195,7 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malmaison Studios, 137C Calea Plevnei, Building B</t>
+          <t>Malmaison Studios, 137C Calea Plevnei, Building B</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -35025,7 +36274,7 @@
       </c>
       <c r="AF288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malmaison Studios, 137C Calea Plevnei, Building B, , București, România</t>
+          <t>Malmaison Studios, 137C Calea Plevnei, Building B, , București, România</t>
         </is>
       </c>
       <c r="AG288" t="inlineStr"/>
@@ -35034,6 +36283,10 @@
       <c r="AJ288" t="n">
         <v>1</v>
       </c>
+      <c r="AK288" t="inlineStr"/>
+      <c r="AL288" t="inlineStr"/>
+      <c r="AM288" t="inlineStr"/>
+      <c r="AN288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -35152,6 +36405,10 @@
       <c r="AJ289" t="n">
         <v>1</v>
       </c>
+      <c r="AK289" t="inlineStr"/>
+      <c r="AL289" t="inlineStr"/>
+      <c r="AM289" t="inlineStr"/>
+      <c r="AN289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -35270,6 +36527,10 @@
       <c r="AJ290" t="n">
         <v>1</v>
       </c>
+      <c r="AK290" t="inlineStr"/>
+      <c r="AL290" t="inlineStr"/>
+      <c r="AM290" t="inlineStr"/>
+      <c r="AN290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -35389,6 +36650,10 @@
       <c r="AJ291" t="n">
         <v>1</v>
       </c>
+      <c r="AK291" t="inlineStr"/>
+      <c r="AL291" t="inlineStr"/>
+      <c r="AM291" t="inlineStr"/>
+      <c r="AN291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -35507,6 +36772,10 @@
       <c r="AJ292" t="n">
         <v>1</v>
       </c>
+      <c r="AK292" t="inlineStr"/>
+      <c r="AL292" t="inlineStr"/>
+      <c r="AM292" t="inlineStr"/>
+      <c r="AN292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -35629,6 +36898,10 @@
       <c r="AJ293" t="n">
         <v>1</v>
       </c>
+      <c r="AK293" t="inlineStr"/>
+      <c r="AL293" t="inlineStr"/>
+      <c r="AM293" t="inlineStr"/>
+      <c r="AN293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -35651,7 +36924,7 @@
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Albert Einstein St.</t>
+          <t>6 Albert Einstein St.</t>
         </is>
       </c>
       <c r="H294" t="inlineStr"/>
@@ -35730,7 +37003,7 @@
       </c>
       <c r="AF294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Albert Einstein St., , Cluj-Napoca, România</t>
+          <t>6 Albert Einstein St., , Cluj-Napoca, România</t>
         </is>
       </c>
       <c r="AG294" t="inlineStr"/>
@@ -35739,6 +37012,10 @@
       <c r="AJ294" t="n">
         <v>1</v>
       </c>
+      <c r="AK294" t="inlineStr"/>
+      <c r="AL294" t="inlineStr"/>
+      <c r="AM294" t="inlineStr"/>
+      <c r="AN294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -35772,7 +37049,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Samedi et dimanche pendant les expositions,&lt;0x0d&gt;
+          <t>Samedi et dimanche pendant les expositions,
 de 14h-18h et sur RDV</t>
         </is>
       </c>
@@ -35878,6 +37155,10 @@
       <c r="AJ295" t="n">
         <v>4</v>
       </c>
+      <c r="AK295" t="inlineStr"/>
+      <c r="AL295" t="inlineStr"/>
+      <c r="AM295" t="inlineStr"/>
+      <c r="AN295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -35996,6 +37277,10 @@
       <c r="AJ296" t="n">
         <v>1</v>
       </c>
+      <c r="AK296" t="inlineStr"/>
+      <c r="AL296" t="inlineStr"/>
+      <c r="AM296" t="inlineStr"/>
+      <c r="AN296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -36118,6 +37403,10 @@
       <c r="AJ297" t="n">
         <v>1</v>
       </c>
+      <c r="AK297" t="inlineStr"/>
+      <c r="AL297" t="inlineStr"/>
+      <c r="AM297" t="inlineStr"/>
+      <c r="AN297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -36238,6 +37527,10 @@
       <c r="AJ298" t="n">
         <v>1</v>
       </c>
+      <c r="AK298" t="inlineStr"/>
+      <c r="AL298" t="inlineStr"/>
+      <c r="AM298" t="inlineStr"/>
+      <c r="AN298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -36348,6 +37641,10 @@
       <c r="AJ299" t="n">
         <v>1</v>
       </c>
+      <c r="AK299" t="inlineStr"/>
+      <c r="AL299" t="inlineStr"/>
+      <c r="AM299" t="inlineStr"/>
+      <c r="AN299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -36454,6 +37751,10 @@
       <c r="AJ300" t="n">
         <v>1</v>
       </c>
+      <c r="AK300" t="inlineStr"/>
+      <c r="AL300" t="inlineStr"/>
+      <c r="AM300" t="inlineStr"/>
+      <c r="AN300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -36497,7 +37798,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Président : Didier Verhaeghe&lt;0x0d&gt;
+          <t>Président : Didier Verhaeghe
 Trésorière : Nathalie Le Dantec</t>
         </is>
       </c>
@@ -36593,6 +37894,10 @@
       <c r="AJ301" t="n">
         <v>1</v>
       </c>
+      <c r="AK301" t="inlineStr"/>
+      <c r="AL301" t="inlineStr"/>
+      <c r="AM301" t="inlineStr"/>
+      <c r="AN301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -36715,6 +38020,10 @@
       <c r="AJ302" t="n">
         <v>1</v>
       </c>
+      <c r="AK302" t="inlineStr"/>
+      <c r="AL302" t="inlineStr"/>
+      <c r="AM302" t="inlineStr"/>
+      <c r="AN302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -36749,7 +38058,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palette Terre est fondée en Janvier 2014 par l'artiste Bastien Cosson, dans une pièce de son appartement orientée plein sud.  Les visites à la galerie se font sur rdv ou durant les vernissages.Palette Terre was founded in January 2014 by the artist Bastien Cosson, on his 5th floor's apartment facing south. Visits to the gallery are by appointment or at openings. Do not hesitate to contact us. </t>
+          <t>Palette Terre est fondée en Janvier 2014 par l'artiste Bastien Cosson, dans une pièce de son appartement orientée plein sud.  Les visites à la galerie se font sur rdv ou durant les vernissages.Palette Terre was founded in January 2014 by the artist Bastien Cosson, on his 5th floor's apartment facing south. Visits to the gallery are by appointment or at openings. Do not hesitate to contact us.</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -36833,6 +38142,10 @@
       <c r="AJ303" t="n">
         <v>1</v>
       </c>
+      <c r="AK303" t="inlineStr"/>
+      <c r="AL303" t="inlineStr"/>
+      <c r="AM303" t="inlineStr"/>
+      <c r="AN303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -36951,6 +38264,10 @@
       <c r="AJ304" t="n">
         <v>1</v>
       </c>
+      <c r="AK304" t="inlineStr"/>
+      <c r="AL304" t="inlineStr"/>
+      <c r="AM304" t="inlineStr"/>
+      <c r="AN304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -36984,7 +38301,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ouvert les jours des vernissages à partir de 18H, pendant les autres évènements organisés par l'association, et sur rendez-vous. </t>
+          <t>Ouvert les jours des vernissages à partir de 18H, pendant les autres évènements organisés par l'association, et sur rendez-vous.</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -37093,6 +38410,10 @@
       <c r="AJ305" t="n">
         <v>1</v>
       </c>
+      <c r="AK305" t="inlineStr"/>
+      <c r="AL305" t="inlineStr"/>
+      <c r="AM305" t="inlineStr"/>
+      <c r="AN305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -37228,6 +38549,10 @@
       <c r="AJ306" t="n">
         <v>1</v>
       </c>
+      <c r="AK306" t="inlineStr"/>
+      <c r="AL306" t="inlineStr"/>
+      <c r="AM306" t="inlineStr"/>
+      <c r="AN306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -37344,6 +38669,10 @@
       <c r="AJ307" t="n">
         <v>1</v>
       </c>
+      <c r="AK307" t="inlineStr"/>
+      <c r="AL307" t="inlineStr"/>
+      <c r="AM307" t="inlineStr"/>
+      <c r="AN307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -37419,7 +38748,7 @@
       <c r="W308" t="inlineStr"/>
       <c r="X308" t="inlineStr">
         <is>
-          <t>La DRAC Ile de France&lt;0x0d&gt;
+          <t>La DRAC Ile de France
 Le Conseil Régional Île de France</t>
         </is>
       </c>
@@ -37467,6 +38796,10 @@
       <c r="AJ308" t="n">
         <v>1</v>
       </c>
+      <c r="AK308" t="inlineStr"/>
+      <c r="AL308" t="inlineStr"/>
+      <c r="AM308" t="inlineStr"/>
+      <c r="AN308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -37581,6 +38914,10 @@
       <c r="AJ309" t="n">
         <v>1</v>
       </c>
+      <c r="AK309" t="inlineStr"/>
+      <c r="AL309" t="inlineStr"/>
+      <c r="AM309" t="inlineStr"/>
+      <c r="AN309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -37696,6 +39033,10 @@
       <c r="AJ310" t="n">
         <v>1</v>
       </c>
+      <c r="AK310" t="inlineStr"/>
+      <c r="AL310" t="inlineStr"/>
+      <c r="AM310" t="inlineStr"/>
+      <c r="AN310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -37830,6 +39171,10 @@
       <c r="AJ311" t="n">
         <v>1</v>
       </c>
+      <c r="AK311" t="inlineStr"/>
+      <c r="AL311" t="inlineStr"/>
+      <c r="AM311" t="inlineStr"/>
+      <c r="AN311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -37871,7 +39216,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Mathis Collins, Gallien Déjean, Pascaline&lt;0x0d&gt;
+          <t>Mathis Collins, Gallien Déjean, Pascaline
 Morincôme, Olga Rozenblum, et Fanny Schulmann</t>
         </is>
       </c>
@@ -37955,6 +39300,10 @@
       <c r="AJ312" t="n">
         <v>1</v>
       </c>
+      <c r="AK312" t="inlineStr"/>
+      <c r="AL312" t="inlineStr"/>
+      <c r="AM312" t="inlineStr"/>
+      <c r="AN312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -37982,8 +39331,8 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Lundi - Vendredi : 10h - 18h&lt;0x0d&gt;
-Samedi : 10h - 17h&lt;0x0d&gt;
+          <t>Lundi - Vendredi : 10h - 18h
+Samedi : 10h - 17h
 Une entrée est ouverte 133, rue Saint-Jacques. Cette entrée permet un accès direct à la galerie.</t>
         </is>
       </c>
@@ -38073,6 +39422,10 @@
       <c r="AJ313" t="n">
         <v>1</v>
       </c>
+      <c r="AK313" t="inlineStr"/>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
+      <c r="AN313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -38183,6 +39536,10 @@
       <c r="AJ314" t="n">
         <v>1</v>
       </c>
+      <c r="AK314" t="inlineStr"/>
+      <c r="AL314" t="inlineStr"/>
+      <c r="AM314" t="inlineStr"/>
+      <c r="AN314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -38302,6 +39659,10 @@
       <c r="AJ315" t="n">
         <v>1</v>
       </c>
+      <c r="AK315" t="inlineStr"/>
+      <c r="AL315" t="inlineStr"/>
+      <c r="AM315" t="inlineStr"/>
+      <c r="AN315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -38418,6 +39779,10 @@
       <c r="AJ316" t="n">
         <v>1</v>
       </c>
+      <c r="AK316" t="inlineStr"/>
+      <c r="AL316" t="inlineStr"/>
+      <c r="AM316" t="inlineStr"/>
+      <c r="AN316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -38536,6 +39901,10 @@
       <c r="AJ317" t="n">
         <v>1</v>
       </c>
+      <c r="AK317" t="inlineStr"/>
+      <c r="AL317" t="inlineStr"/>
+      <c r="AM317" t="inlineStr"/>
+      <c r="AN317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -38646,6 +40015,10 @@
       <c r="AJ318" t="n">
         <v>1</v>
       </c>
+      <c r="AK318" t="inlineStr"/>
+      <c r="AL318" t="inlineStr"/>
+      <c r="AM318" t="inlineStr"/>
+      <c r="AN318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -38677,7 +40050,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Du mercredi au dimanche&lt;0x0d&gt;
+          <t>Du mercredi au dimanche
 De 15h00 à 19h00</t>
         </is>
       </c>
@@ -38779,6 +40152,10 @@
       <c r="AJ319" t="n">
         <v>1</v>
       </c>
+      <c r="AK319" t="inlineStr"/>
+      <c r="AL319" t="inlineStr"/>
+      <c r="AM319" t="inlineStr"/>
+      <c r="AN319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -38899,6 +40276,10 @@
       <c r="AJ320" t="n">
         <v>1</v>
       </c>
+      <c r="AK320" t="inlineStr"/>
+      <c r="AL320" t="inlineStr"/>
+      <c r="AM320" t="inlineStr"/>
+      <c r="AN320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -39013,6 +40394,10 @@
       <c r="AJ321" t="n">
         <v>1</v>
       </c>
+      <c r="AK321" t="inlineStr"/>
+      <c r="AL321" t="inlineStr"/>
+      <c r="AM321" t="inlineStr"/>
+      <c r="AN321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -39041,7 +40426,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönhauser Allee 167c </t>
+          <t>Schönhauser Allee 167c</t>
         </is>
       </c>
       <c r="H322" t="inlineStr"/>
@@ -39131,6 +40516,10 @@
       <c r="AJ322" t="n">
         <v>1</v>
       </c>
+      <c r="AK322" t="inlineStr"/>
+      <c r="AL322" t="inlineStr"/>
+      <c r="AM322" t="inlineStr"/>
+      <c r="AN322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -39163,12 +40552,11 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE CONCEPT PILOTENKUECHEThe PILOTENKUECHE supports artists and is an international artist-run residency &amp; art program based in Leipzig, Germany. The non-profit institution is organized by artists for artists. The team operates with a transdisciplinary background between art, theory &amp; diverse sciences. The goal is to provide artists a base to work on and wishes to be an opportunity to get in contact with the local art scene. The project is focusing on synergetic group dynamic, experiments, expanded strategies and transdisciplinary exchange. Selected artists from around the world are invited to come and work at our common used space for an individual period of 3- 5 months or longer. During each round at the artist residency, the group of artists transforms into a kind of synergistic collective. The artists meet to customize the space according to their wishes, to establish and to show temporary projects, to work and to live together. To boost the transfer between artists and actors of other disciplines, cultural and artistic events could be hosted at the studios and guests could be invited therefor. With the participation in our program each artist is offered in detail:
+          <t>THE CONCEPT PILOTENKUECHEThe PILOTENKUECHE supports artists and is an international artist-run residency &amp; art program based in Leipzig, Germany. The non-profit institution is organized by artists for artists. The team operates with a transdisciplinary background between art, theory &amp; diverse sciences. The goal is to provide artists a base to work on and wishes to be an opportunity to get in contact with the local art scene. The project is focusing on synergetic group dynamic, experiments, expanded strategies and transdisciplinary exchange. Selected artists from around the world are invited to come and work at our common used space for an individual period of 3- 5 months or longer. During each round at the artist residency, the group of artists transforms into a kind of synergistic collective. The artists meet to customize the space according to their wishes, to establish and to show temporary projects, to work and to live together. To boost the transfer between artists and actors of other disciplines, cultural and artistic events could be hosted at the studios and guests could be invited therefor. With the participation in our program each artist is offered in detail:
 selected artists participate in our events &amp; exhibitions:- artist talks event ‘TALK TALK TALK’. Each artist of the project talks about his/her position- preview exhibtion / open studio ‘INTERVIEW’. The artists present their first works in a small group show / open studio- final exhibition. The artists present their works in a group show- weekly ‘Open Studio’ on each thursday from 14 – 18:00h- further events &amp; shows by interest &amp; agreement possible- individual consultations by agreement
 disciplines: activism, architecture, conceptual, design, digital, drawing, film, installation, intervention, mixed media, technology, intermedia, literature, painting, performance, photography, printmaking, sculpture, sound, video or other disciplines of arts
 language: English / German
-In organizing and running this residency project, it is the main goal of the members of the PILOTENKUECHE to offer a platform that encourages dialogues and exchange about artistic practice from different people, coming from different places, and working in different techniques. The PILOTENKUECHE wishes to provide our participants with the experience of accomplishing something as a group; and, moreover, in experimenting with new forms of cooperation, ideally in fostering an independent position in one’s work.
- </t>
+In organizing and running this residency project, it is the main goal of the members of the PILOTENKUECHE to offer a platform that encourages dialogues and exchange about artistic practice from different people, coming from different places, and working in different techniques. The PILOTENKUECHE wishes to provide our participants with the experience of accomplishing something as a group; and, moreover, in experimenting with new forms of cooperation, ideally in fostering an independent position in one’s work.</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -39183,8 +40571,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE CONCEPT OF THE STUDIOThe STUDIO is  based in Leipzig, Germany. Selected artists from around the world are invited to come and work in the space for an individual period of 3 – 5 months or longer. Each artist is offered his own area within the 243m² space, where they have 24-hour a day access to work in that space. What the artist do with their time during the residency is up to them – the studio is something like a self running system, so that’s why it’s ever changing.
- </t>
+          <t>THE CONCEPT OF THE STUDIOThe STUDIO is  based in Leipzig, Germany. Selected artists from around the world are invited to come and work in the space for an individual period of 3 – 5 months or longer. Each artist is offered his own area within the 243m² space, where they have 24-hour a day access to work in that space. What the artist do with their time during the residency is up to them – the studio is something like a self running system, so that’s why it’s ever changing.</t>
         </is>
       </c>
       <c r="M323" t="b">
@@ -39259,6 +40646,10 @@
       <c r="AJ323" t="n">
         <v>1</v>
       </c>
+      <c r="AK323" t="inlineStr"/>
+      <c r="AL323" t="inlineStr"/>
+      <c r="AM323" t="inlineStr"/>
+      <c r="AN323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -39369,6 +40760,10 @@
       <c r="AJ324" t="n">
         <v>1</v>
       </c>
+      <c r="AK324" t="inlineStr"/>
+      <c r="AL324" t="inlineStr"/>
+      <c r="AM324" t="inlineStr"/>
+      <c r="AN324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -39489,6 +40884,10 @@
       <c r="AJ325" t="n">
         <v>1</v>
       </c>
+      <c r="AK325" t="inlineStr"/>
+      <c r="AL325" t="inlineStr"/>
+      <c r="AM325" t="inlineStr"/>
+      <c r="AN325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -39601,6 +41000,10 @@
       <c r="AJ326" t="n">
         <v>1</v>
       </c>
+      <c r="AK326" t="inlineStr"/>
+      <c r="AL326" t="inlineStr"/>
+      <c r="AM326" t="inlineStr"/>
+      <c r="AN326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -39721,6 +41124,10 @@
       <c r="AJ327" t="n">
         <v>1</v>
       </c>
+      <c r="AK327" t="inlineStr"/>
+      <c r="AL327" t="inlineStr"/>
+      <c r="AM327" t="inlineStr"/>
+      <c r="AN327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -39835,6 +41242,10 @@
       <c r="AJ328" t="n">
         <v>1</v>
       </c>
+      <c r="AK328" t="inlineStr"/>
+      <c r="AL328" t="inlineStr"/>
+      <c r="AM328" t="inlineStr"/>
+      <c r="AN328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -39945,6 +41356,10 @@
       <c r="AJ329" t="n">
         <v>1</v>
       </c>
+      <c r="AK329" t="inlineStr"/>
+      <c r="AL329" t="inlineStr"/>
+      <c r="AM329" t="inlineStr"/>
+      <c r="AN329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -39974,7 +41389,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>ALERT studio functions as a pop-up-gallery.&lt;0x0d&gt;
+          <t>ALERT studio functions as a pop-up-gallery.
 Visits will be programmed by e-mail.</t>
         </is>
       </c>
@@ -40066,6 +41481,10 @@
       <c r="AJ330" t="n">
         <v>1</v>
       </c>
+      <c r="AK330" t="inlineStr"/>
+      <c r="AL330" t="inlineStr"/>
+      <c r="AM330" t="inlineStr"/>
+      <c r="AN330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -40184,6 +41603,10 @@
       <c r="AJ331" t="n">
         <v>1</v>
       </c>
+      <c r="AK331" t="inlineStr"/>
+      <c r="AL331" t="inlineStr"/>
+      <c r="AM331" t="inlineStr"/>
+      <c r="AN331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -40220,8 +41643,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balamuc (Romanian for loonie bin) is the manifesto-free experimental platform of the artists Livia Coloji, Răzvan Cornici, Lucian Barbu, Gavril Pop and Ana Kun. Generally they develop their own projects and together they collaborate for The Norm, a series of observations on social, political, cultural and whatever themes, a kind of collective sketchbook which can be browsed online and offline.Since its birth in 2013, Balamuc generates and hosts private and collaborative projects regularly:2024 – Pray tell, collaborative fanzine produced together with After Hours Working Club2023 – Balamuc’s Zines Show&amp;Swap, one day zine event at theathenszinebibliotheque2023 – Make a wish NON STOP, exhibition at Artă Non Stop Sibiu, curator Gia Țidorescu2023 – Make a wish Air Balamuc with Lucian Barbu and Gavril Pop, during the complementary platform of Art Encounters Biennial2020 – 52proposalsforthe20s by Maria Lind, predictions for the 20s, online2020 – ABRAHAM CRUZVILLEGAS: The 1st Intergalactic Summit of Independent Art Spaces (Sandwich II, Bucharest, și online)2020 – Plai Food Encounters, culinary collaboration Balamuc and Noemi Hügel, Ambasada, Timișoara2019 – AIR (collective zine, during the Publication Platform of the Art Encounters Biennial)2018 – Globular Norm (selection of sociopolitical drawings from the Norm), part of Mad(e) in Romania, Pygmalion Gallery2017 – With Broad Strokes // Sketchbooks (temporary library for artists’ notebooks and sketchbooks), Balamuc studio, Art Encounters Biennial as independent guest space2016 – Norma d’Lux (show and book launch), Pygmalion Gallery2015 – Dan Perjovschi’s Zines. 1992-2015 (retrospective and workshop with Dan Perjovschi), Balamuc studio, part of Art Encounters Biennial2014 – The Breakfast of Superheros (group show around the idea of superhero), Balamuc studio
- </t>
+          <t>Balamuc (Romanian for loonie bin) is the manifesto-free experimental platform of the artists Livia Coloji, Răzvan Cornici, Lucian Barbu, Gavril Pop and Ana Kun. Generally they develop their own projects and together they collaborate for The Norm, a series of observations on social, political, cultural and whatever themes, a kind of collective sketchbook which can be browsed online and offline.Since its birth in 2013, Balamuc generates and hosts private and collaborative projects regularly:2024 – Pray tell, collaborative fanzine produced together with After Hours Working Club2023 – Balamuc’s Zines Show&amp;Swap, one day zine event at theathenszinebibliotheque2023 – Make a wish NON STOP, exhibition at Artă Non Stop Sibiu, curator Gia Țidorescu2023 – Make a wish Air Balamuc with Lucian Barbu and Gavril Pop, during the complementary platform of Art Encounters Biennial2020 – 52proposalsforthe20s by Maria Lind, predictions for the 20s, online2020 – ABRAHAM CRUZVILLEGAS: The 1st Intergalactic Summit of Independent Art Spaces (Sandwich II, Bucharest, și online)2020 – Plai Food Encounters, culinary collaboration Balamuc and Noemi Hügel, Ambasada, Timișoara2019 – AIR (collective zine, during the Publication Platform of the Art Encounters Biennial)2018 – Globular Norm (selection of sociopolitical drawings from the Norm), part of Mad(e) in Romania, Pygmalion Gallery2017 – With Broad Strokes // Sketchbooks (temporary library for artists’ notebooks and sketchbooks), Balamuc studio, Art Encounters Biennial as independent guest space2016 – Norma d’Lux (show and book launch), Pygmalion Gallery2015 – Dan Perjovschi’s Zines. 1992-2015 (retrospective and workshop with Dan Perjovschi), Balamuc studio, part of Art Encounters Biennial2014 – The Breakfast of Superheros (group show around the idea of superhero), Balamuc studio</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -40307,6 +41729,10 @@
       <c r="AJ332" t="n">
         <v>1</v>
       </c>
+      <c r="AK332" t="inlineStr"/>
+      <c r="AL332" t="inlineStr"/>
+      <c r="AM332" t="inlineStr"/>
+      <c r="AN332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -40425,6 +41851,10 @@
       <c r="AJ333" t="n">
         <v>1</v>
       </c>
+      <c r="AK333" t="inlineStr"/>
+      <c r="AL333" t="inlineStr"/>
+      <c r="AM333" t="inlineStr"/>
+      <c r="AN333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -40541,6 +41971,10 @@
       <c r="AJ334" t="n">
         <v>1</v>
       </c>
+      <c r="AK334" t="inlineStr"/>
+      <c r="AL334" t="inlineStr"/>
+      <c r="AM334" t="inlineStr"/>
+      <c r="AN334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -40655,6 +42089,10 @@
       <c r="AJ335" t="n">
         <v>1</v>
       </c>
+      <c r="AK335" t="inlineStr"/>
+      <c r="AL335" t="inlineStr"/>
+      <c r="AM335" t="inlineStr"/>
+      <c r="AN335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -40769,6 +42207,10 @@
       <c r="AJ336" t="n">
         <v>1</v>
       </c>
+      <c r="AK336" t="inlineStr"/>
+      <c r="AL336" t="inlineStr"/>
+      <c r="AM336" t="inlineStr"/>
+      <c r="AN336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -40795,7 +42237,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Center of Interest, 9A Fabricii de Chibrituri St.</t>
+          <t>Center of Interest, 9A Fabricii de Chibrituri St.</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -40878,7 +42320,7 @@
       </c>
       <c r="AF337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Center of Interest, 9A Fabricii de Chibrituri St., , Cluj-Napoca, România</t>
+          <t>Center of Interest, 9A Fabricii de Chibrituri St., , Cluj-Napoca, România</t>
         </is>
       </c>
       <c r="AG337" t="inlineStr"/>
@@ -40886,6 +42328,330 @@
       <c r="AI337" t="inlineStr"/>
       <c r="AJ337" t="n">
         <v>1</v>
+      </c>
+      <c r="AK337" t="inlineStr"/>
+      <c r="AL337" t="inlineStr"/>
+      <c r="AM337" t="inlineStr"/>
+      <c r="AN337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>458</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>L'épicerie</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="inlineStr"/>
+      <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
+      <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr"/>
+      <c r="Y338" t="inlineStr"/>
+      <c r="Z338" t="inlineStr"/>
+      <c r="AA338" t="inlineStr"/>
+      <c r="AB338" t="inlineStr"/>
+      <c r="AC338" t="inlineStr"/>
+      <c r="AD338" t="inlineStr"/>
+      <c r="AE338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr"/>
+      <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr"/>
+      <c r="AJ338" t="inlineStr"/>
+      <c r="AK338" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL338" t="inlineStr">
+        <is>
+          <t>In order to answer the first question, I could say that it depends on projects. With regard to the project "+/- The Epicery" or "Donor-Donor" the original will was clearly a position and a poetic response to the political will. The demonstration infrastructure and protocols implemented by them were voluntaryly fragile and did not want to be institutionalized, it was a response here and now in the social and artistic context of the age. In the 1990s, there was a gap between the historical and critical nature of Nicolas Bourriaud. There were no structures that welcomed the work of the young artists. They were also used to make their own tools.</t>
+        </is>
+      </c>
+      <c r="AM338" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN338" t="inlineStr">
+        <is>
+          <t>With regard to question 2 and for me, I voluntarily resell the concept of work by the author, and let the appreciation of others consider this work as "work". The archiving of a documentation, reflection on this subject, its replaying under the plastic, sound, film or still installation forms an integral part of my work. Tising bridges between curatorial and artistic practices has always been either, one that can serve as a narrative to the other. But the most important thing in this regard has always been to promote the spirit and intelligence of the collective, for which the story takes all its meaning and value of being a vecuist. Jean-Louis and the graphic artist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>459</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>PeepSpace</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr"/>
+      <c r="R339" t="inlineStr"/>
+      <c r="S339" t="inlineStr"/>
+      <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
+      <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr"/>
+      <c r="Y339" t="inlineStr"/>
+      <c r="Z339" t="inlineStr"/>
+      <c r="AA339" t="inlineStr"/>
+      <c r="AB339" t="inlineStr"/>
+      <c r="AC339" t="inlineStr"/>
+      <c r="AD339" t="inlineStr"/>
+      <c r="AE339" t="inlineStr"/>
+      <c r="AF339" t="inlineStr"/>
+      <c r="AG339" t="inlineStr"/>
+      <c r="AH339" t="inlineStr"/>
+      <c r="AI339" t="inlineStr"/>
+      <c r="AJ339" t="inlineStr"/>
+      <c r="AK339" t="inlineStr">
+        <is>
+          <t>Q1 Can you tell us how your structure responds, through its operating methods, to the current context and/or the context of its emergence?</t>
+        </is>
+      </c>
+      <c r="AL339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  I'm not sure I fully understand this question but I'll try to answer. I felt a need, had to assume others did too. That assumption proved true as artists upon artists have been a part. We're idealistic in our approach. We idealistically created a hub for culture, we idealistically invite artists to submit work, we have faith in the power of art and sharing it.There's simply infinite amounts of art being created and limited space for sharing it. So as long as there are humans making work, there is a need for exhibition spaces. And so a valuable tool for PeepSpace is the open call. We're constantly introduced to incredible artists who we wouldn't otherwise know this way. </t>
+        </is>
+      </c>
+      <c r="AM339" t="inlineStr">
+        <is>
+          <t>Q2 Do you think that your space, S or the space in which you took part, can be considered a work of art? And if so, in what sense?</t>
+        </is>
+      </c>
+      <c r="AN339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Sure. I feel differently about it than I do about my own personal visual art making but it is certainly a creative process. We built a thing, we bring others into the thing to experience it, it communicates our perspectives along with the artists we are showing. Just like another work of art, we digested and reconfigured previous ideas along with some possibly new thinking, and created a new item.  Monica Carrier, PeepSpace Founding Director PeepSpace, New-York. www.PeepSpaceNY.com </t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>460</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Kurt-forever</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
+      <c r="T340" t="inlineStr"/>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr"/>
+      <c r="Z340" t="inlineStr"/>
+      <c r="AA340" t="inlineStr"/>
+      <c r="AB340" t="inlineStr"/>
+      <c r="AC340" t="inlineStr"/>
+      <c r="AD340" t="inlineStr"/>
+      <c r="AE340" t="inlineStr"/>
+      <c r="AF340" t="inlineStr"/>
+      <c r="AG340" t="inlineStr"/>
+      <c r="AH340" t="inlineStr"/>
+      <c r="AI340" t="inlineStr"/>
+      <c r="AJ340" t="inlineStr"/>
+      <c r="AK340" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL340" t="inlineStr">
+        <is>
+          <t>If I have been active within the 6B team, during the first three years of its creation, this commitment has been revolutionized. Also, the short-term collective that I am co-founder is currently in the sleep - I have continued the commission and criticism in the past years. So I deliver a retroactive status, and this distance urges me to a less convincing approach, maybe a more generic about the concept of the artist's appearance. The 6b is really an artist, but it has never been, in fact, admirably, these were not known.</t>
+        </is>
+      </c>
+      <c r="AM340" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN340" t="inlineStr">
+        <is>
+          <t>This space, however, is "placed" to create. In a run-of-the-art culture, there is no place. This place that wanted to be ideally assembled all the others (atlier, space of exposure, criticism, conference, publication, sale...) the quarries of the least, but the englober, allowed a disseminating of the practices - between the theory and practice. In a run-of-the-art artist, the confusion of the places that are not of itself - or of the other. It is the sense of the product of the collection. The symbolic references are always asked by the closets, which are used to make them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>461</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Palais des paris</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr"/>
+      <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr"/>
+      <c r="Y341" t="inlineStr"/>
+      <c r="Z341" t="inlineStr"/>
+      <c r="AA341" t="inlineStr"/>
+      <c r="AB341" t="inlineStr"/>
+      <c r="AC341" t="inlineStr"/>
+      <c r="AD341" t="inlineStr"/>
+      <c r="AE341" t="inlineStr"/>
+      <c r="AF341" t="inlineStr"/>
+      <c r="AG341" t="inlineStr"/>
+      <c r="AH341" t="inlineStr"/>
+      <c r="AI341" t="inlineStr"/>
+      <c r="AJ341" t="inlineStr"/>
+      <c r="AK341" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL341" t="inlineStr">
+        <is>
+          <t>The context of art in Japan is different from the European context to have a much weaker field of knowledge of art and a more dynamic internal art market. Since then, institutions do not have the first role in establishing the definition of art and performing aesthetic judgment. The museums do not really have autonomy and exhibitions are mostly the result of private projects of the world's media or sometimes local politics. Japanese artists are used to pay for the existence of public. For contemporary art artists, the recommended strategy is to be recognized as a national artist who is not a nationalist.</t>
+        </is>
+      </c>
+      <c r="AM341" t="inlineStr">
+        <is>
+          <t>Question 2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN341" t="inlineStr">
+        <is>
+          <t>We do not think that the space of the "Palais des Paris" is a work. Our aim was to produce an articulation between the design of an artist producing an object and a local Japanese audience on the one hand. This art is a work of dialogue with the artist, contextualization and translation to the public in order to reach an understanding without interest. If we can consider our work as a "work", then it results in less space than the art of the language. The film from a residency can then also be considered as "work", it is by means of an image-text article based on this type of media.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>462</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>GLASSBOX-NORD</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr"/>
+      <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr"/>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="inlineStr"/>
+      <c r="AA342" t="inlineStr"/>
+      <c r="AB342" t="inlineStr"/>
+      <c r="AC342" t="inlineStr"/>
+      <c r="AD342" t="inlineStr"/>
+      <c r="AE342" t="inlineStr"/>
+      <c r="AF342" t="inlineStr"/>
+      <c r="AG342" t="inlineStr"/>
+      <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="inlineStr"/>
+      <c r="AJ342" t="inlineStr"/>
+      <c r="AK342" t="inlineStr">
+        <is>
+          <t>Q1 : Pouvez-vous nous apporter un témoignage sur la façon dont votre structure répond, à travers ses modalités de fonctionnement, au contexte actuel et/ou celui de son émergence ?</t>
+        </is>
+      </c>
+      <c r="AL342" t="inlineStr">
+        <is>
+          <t>In history, Glasbox was conceived to respond to a particular need, that of the distribution of artists to the beautiful art of Paris. These artists are looking for spaces to show their work which are neither institutions nor commercial spaces, they do not want to be emancipated but also because these spaces are difficult to access new practices, without great visibility. Glassbox's programming remains in this interview, allowing great freedom of programming and choice of choice, creating an alternative to art centres or other structures that are more impermissible to search, to the wrong way, to the wrong way, or to put it to the wrong place.</t>
+        </is>
+      </c>
+      <c r="AM342" t="inlineStr">
+        <is>
+          <t>Q2 : Pensez-vous que votre espace ou l'espace auquel vous avez participé puisse être considéré comme une œuvre ? Et si oui, en quel sens ?</t>
+        </is>
+      </c>
+      <c r="AN342" t="inlineStr">
+        <is>
+          <t>I do not think that space or function can be considered as a work, in the sense that its vocation is to welcome or make it germinate again. It is not only an empty box in which we would have something without any impact on this thing but a little like a machine, composed of places, tools, people who pass it, which affects the work that is placed in it. However, I think that in our practice in this space, methods can be similar to those of artists during creation: experimenting with formats, looking at things done and analysing them, modifying them in one sense or another by using them in one way or another by using them.</t>
+        </is>
       </c>
     </row>
   </sheetData>
